--- a/Documentation/Comparador Tabla de NDout con graficos.xlsx
+++ b/Documentation/Comparador Tabla de NDout con graficos.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="8910" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gráfico3" sheetId="6" r:id="rId1"/>
+    <sheet name="RAW Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="33">
   <si>
     <t>EXP</t>
   </si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Variacion de tension</t>
   </si>
 </sst>
 </file>
@@ -285,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -482,6 +486,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,6 +499,553 @@
     </mruColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$5:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="114300" prst="artDeco"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.8875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4673743365594665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.517327505463627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1027162035591642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5335622853574868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6153605994380174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.321261317514836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.394005619731491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="101600" prst="riblet"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0561999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9438000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3707999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.325799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$22:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7728374846490473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8389646377176758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9649526088736327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8057121264603051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5312844412255542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.338382088988258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657335390622539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$5:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="152400" h="50800" prst="softRound"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0336999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9326000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.610999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$5:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1457.3688711516534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801.41106043329523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5567.930444697834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355.3734321550744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2534.6493728620294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56574.743443557585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9634.5014245014245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$22:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$22:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9663000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7079000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3257999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.262999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$22:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3612.5364431486878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.21400778210125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14912.490272373543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.3891050583657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6383.735408560311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155001.16731517512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25999.922178988327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="67133824"/>
+        <c:axId val="67135360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="67133824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67135360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="67135360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67133824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="-97414"/>
+    <xdr:ext cx="8680739" cy="6396904"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -801,9 +1353,14 @@
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="5.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:24">
       <c r="A1" s="107" t="s">
         <v>21</v>
       </c>
@@ -822,7 +1379,7 @@
       <c r="N1" s="107"/>
       <c r="O1" s="107"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="A2" s="105" t="s">
         <v>14</v>
       </c>
@@ -867,7 +1424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="15">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="15">
       <c r="A3" s="106"/>
       <c r="B3" s="94"/>
       <c r="C3" s="94"/>
@@ -883,8 +1440,11 @@
       <c r="M3" s="94"/>
       <c r="N3" s="94"/>
       <c r="O3" s="92"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1">
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -900,8 +1460,16 @@
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
       <c r="O4" s="44"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>17</v>
       </c>
@@ -947,8 +1515,34 @@
       <c r="O5" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <f>(ABS(E5-F5)/E5)*100</f>
+        <v>1.4673743365594665</v>
+      </c>
+      <c r="U5" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="108">
+        <f>(ABS(M5-N5)/M5)*100</f>
+        <v>1457.3688711516534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="97"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
@@ -986,8 +1580,26 @@
       <c r="O6" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6" s="97"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" ref="T6:T36" si="0">(ABS(E6-F6)/E6)*100</f>
+        <v>1.517327505463627</v>
+      </c>
+      <c r="U6" s="101"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="108">
+        <f t="shared" ref="X6:X36" si="1">(ABS(M6-N6)/M6)*100</f>
+        <v>801.41106043329523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="97"/>
       <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
@@ -1025,8 +1637,26 @@
       <c r="O7" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7" s="97"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1027162035591642</v>
+      </c>
+      <c r="U7" s="101"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="108">
+        <f t="shared" si="1"/>
+        <v>5567.930444697834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="97"/>
       <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
@@ -1064,8 +1694,26 @@
       <c r="O8" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8" s="97"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5335622853574868</v>
+      </c>
+      <c r="U8" s="101"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="108">
+        <f t="shared" si="1"/>
+        <v>1355.3734321550744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="97"/>
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
@@ -1103,8 +1751,26 @@
       <c r="O9" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9" s="97"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6153605994380174</v>
+      </c>
+      <c r="U9" s="101"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="108">
+        <f t="shared" si="1"/>
+        <v>2534.6493728620294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="97"/>
       <c r="B10" s="12"/>
       <c r="C10" s="6" t="s">
@@ -1142,8 +1808,26 @@
       <c r="O10" s="86" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10" s="97"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="0"/>
+        <v>17.321261317514836</v>
+      </c>
+      <c r="U10" s="101"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="108">
+        <f t="shared" si="1"/>
+        <v>56574.743443557585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="97"/>
       <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
@@ -1181,8 +1865,26 @@
       <c r="O11" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="97"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="0"/>
+        <v>16.394005619731491</v>
+      </c>
+      <c r="U11" s="101"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="108">
+        <f t="shared" si="1"/>
+        <v>9634.5014245014245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="97"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1198,8 +1900,16 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12" s="97"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="108"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="97"/>
       <c r="B13" s="10" t="s">
         <v>7</v>
@@ -1241,8 +1951,30 @@
       <c r="O13" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13" s="97"/>
+      <c r="R13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4985950671245722</v>
+      </c>
+      <c r="U13" s="101"/>
+      <c r="V13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="108">
+        <f t="shared" si="1"/>
+        <v>1485.7468643101481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="97"/>
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
@@ -1280,8 +2012,26 @@
       <c r="O14" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14" s="97"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5079612862941065</v>
+      </c>
+      <c r="U14" s="101"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="108">
+        <f t="shared" si="1"/>
+        <v>806.84150513112888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="97"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
@@ -1319,8 +2069,26 @@
       <c r="O15" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15" s="97"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1776459569153852</v>
+      </c>
+      <c r="U15" s="101"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="108">
+        <f t="shared" si="1"/>
+        <v>5788.9680729760548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="97"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
@@ -1358,8 +2126,26 @@
       <c r="O16" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16" s="97"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="0"/>
+        <v>7.7146425226350335</v>
+      </c>
+      <c r="U16" s="101"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="108">
+        <f t="shared" si="1"/>
+        <v>1354.0906499429877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="97"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6" t="s">
@@ -1397,8 +2183,26 @@
       <c r="O17" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17" s="97"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="0"/>
+        <v>4.6831095847642805</v>
+      </c>
+      <c r="U17" s="101"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="108">
+        <f t="shared" si="1"/>
+        <v>3180.7012542759408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="97"/>
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
@@ -1436,8 +2240,26 @@
       <c r="O18" s="86" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18" s="97"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="0"/>
+        <v>15.472994068061194</v>
+      </c>
+      <c r="U18" s="101"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="108">
+        <f t="shared" si="1"/>
+        <v>56751.482326111749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="97"/>
       <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
@@ -1475,8 +2297,26 @@
       <c r="O19" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19" s="97"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="0"/>
+        <v>16.781142678738671</v>
+      </c>
+      <c r="U19" s="101"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="108">
+        <f t="shared" si="1"/>
+        <v>9638.803418803418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="98"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1492,8 +2332,16 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="20"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20" s="98"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="108"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -1509,8 +2357,16 @@
       <c r="M21" s="46"/>
       <c r="N21" s="46"/>
       <c r="O21" s="47"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" customHeight="1">
+      <c r="Q21" s="30"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="108"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" s="99" t="s">
         <v>18</v>
       </c>
@@ -1556,8 +2412,34 @@
       <c r="O22" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7728374846490473</v>
+      </c>
+      <c r="U22" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" s="108">
+        <f t="shared" si="1"/>
+        <v>3612.5364431486878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="99"/>
       <c r="B23" s="36"/>
       <c r="C23" s="37" t="s">
@@ -1595,8 +2477,26 @@
       <c r="O23" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23" s="99"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8389646377176758</v>
+      </c>
+      <c r="U23" s="103"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="108">
+        <f t="shared" si="1"/>
+        <v>835.21400778210125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="99"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37" t="s">
@@ -1634,8 +2534,26 @@
       <c r="O24" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24" s="99"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="0"/>
+        <v>8.9649526088736327</v>
+      </c>
+      <c r="U24" s="103"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="108">
+        <f t="shared" si="1"/>
+        <v>14912.490272373543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="99"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37" t="s">
@@ -1673,8 +2591,26 @@
       <c r="O25" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="Q25" s="99"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="0"/>
+        <v>9.8057121264603051</v>
+      </c>
+      <c r="U25" s="103"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" s="108">
+        <f t="shared" si="1"/>
+        <v>1250.3891050583657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="99"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37" t="s">
@@ -1712,8 +2648,26 @@
       <c r="O26" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="Q26" s="99"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5312844412255542</v>
+      </c>
+      <c r="U26" s="103"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="108">
+        <f t="shared" si="1"/>
+        <v>6383.735408560311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="99"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37" t="s">
@@ -1751,8 +2705,26 @@
       <c r="O27" s="81" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="Q27" s="99"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="0"/>
+        <v>22.338382088988258</v>
+      </c>
+      <c r="U27" s="103"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="108">
+        <f t="shared" si="1"/>
+        <v>155001.16731517512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="99"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="s">
@@ -1790,8 +2762,26 @@
       <c r="O28" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="Q28" s="99"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="0"/>
+        <v>25.657335390622539</v>
+      </c>
+      <c r="U28" s="103"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="108">
+        <f t="shared" si="1"/>
+        <v>25999.922178988327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="99"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -1807,8 +2797,16 @@
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="50"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="Q29" s="99"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="108"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="99"/>
       <c r="B30" s="33" t="s">
         <v>7</v>
@@ -1850,8 +2848,30 @@
       <c r="O30" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="Q30" s="99"/>
+      <c r="R30" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8137733413105734</v>
+      </c>
+      <c r="U30" s="103"/>
+      <c r="V30" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" s="108">
+        <f t="shared" si="1"/>
+        <v>3813.4305150631681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="99"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37" t="s">
@@ -1889,8 +2909,26 @@
       <c r="O31" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="Q31" s="99"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8641559341247644</v>
+      </c>
+      <c r="U31" s="103"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" s="108">
+        <f t="shared" si="1"/>
+        <v>851.82879377431925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="99"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37" t="s">
@@ -1928,8 +2966,26 @@
       <c r="O32" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="Q32" s="99"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="0"/>
+        <v>8.9366124004156511</v>
+      </c>
+      <c r="U32" s="103"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" s="108">
+        <f t="shared" si="1"/>
+        <v>16017.237354085606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="99"/>
       <c r="B33" s="36"/>
       <c r="C33" s="37" t="s">
@@ -1967,8 +3023,26 @@
       <c r="O33" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="Q33" s="99"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="0"/>
+        <v>10.177283748464903</v>
+      </c>
+      <c r="U33" s="103"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="108">
+        <f t="shared" si="1"/>
+        <v>1252.9182879377431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="99"/>
       <c r="B34" s="36"/>
       <c r="C34" s="37" t="s">
@@ -2006,8 +3080,26 @@
       <c r="O34" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="Q34" s="99"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6806373397991026</v>
+      </c>
+      <c r="U34" s="103"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="X34" s="108">
+        <f t="shared" si="1"/>
+        <v>7907.3929961089489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="99"/>
       <c r="B35" s="36"/>
       <c r="C35" s="37" t="s">
@@ -2045,8 +3137,26 @@
       <c r="O35" s="81" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="Q35" s="99"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="5">
+        <f t="shared" si="0"/>
+        <v>20.899329281733159</v>
+      </c>
+      <c r="U35" s="103"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="108">
+        <f t="shared" si="1"/>
+        <v>154915.56420233464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="99"/>
       <c r="B36" s="39"/>
       <c r="C36" s="40" t="s">
@@ -2084,8 +3194,26 @@
       <c r="O36" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="Q36" s="99"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="0"/>
+        <v>27.571873917561479</v>
+      </c>
+      <c r="U36" s="103"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" s="108">
+        <f t="shared" si="1"/>
+        <v>26162.957198443582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="100"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -2101,9 +3229,17 @@
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
       <c r="O37" s="58"/>
-    </row>
-    <row r="38" spans="1:15" ht="17.25" customHeight="1"/>
-    <row r="39" spans="1:15">
+      <c r="Q37" s="100"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+    </row>
+    <row r="38" spans="1:24" ht="17.25" customHeight="1"/>
+    <row r="39" spans="1:24">
       <c r="A39" s="107" t="s">
         <v>22</v>
       </c>
@@ -2122,7 +3258,7 @@
       <c r="N39" s="107"/>
       <c r="O39" s="107"/>
     </row>
-    <row r="40" spans="1:15" ht="15">
+    <row r="40" spans="1:24" ht="15">
       <c r="A40" s="105" t="s">
         <v>14</v>
       </c>
@@ -2167,7 +3303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15">
+    <row r="41" spans="1:24" ht="15">
       <c r="A41" s="106"/>
       <c r="B41" s="94"/>
       <c r="C41" s="94"/>
@@ -2184,7 +3320,7 @@
       <c r="N41" s="94"/>
       <c r="O41" s="92"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:24">
       <c r="A42" s="27"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -2201,7 +3337,7 @@
       <c r="N42" s="43"/>
       <c r="O42" s="44"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:24">
       <c r="A43" s="97" t="s">
         <v>17</v>
       </c>
@@ -2248,7 +3384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:24">
       <c r="A44" s="97"/>
       <c r="B44" s="12"/>
       <c r="C44" s="6" t="s">
@@ -2287,7 +3423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:24">
       <c r="A45" s="97"/>
       <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
@@ -2326,7 +3462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:24">
       <c r="A46" s="97"/>
       <c r="B46" s="12"/>
       <c r="C46" s="6" t="s">
@@ -2365,7 +3501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:24">
       <c r="A47" s="97"/>
       <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
@@ -2404,7 +3540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:24">
       <c r="A48" s="97"/>
       <c r="B48" s="12"/>
       <c r="C48" s="6" t="s">
@@ -4254,7 +5390,11 @@
       <c r="O113" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="61">
+    <mergeCell ref="Q5:Q20"/>
+    <mergeCell ref="U5:U20"/>
+    <mergeCell ref="Q22:Q37"/>
+    <mergeCell ref="U22:U37"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A39:O39"/>
     <mergeCell ref="A77:O77"/>

--- a/Documentation/Comparador Tabla de NDout con graficos.xlsx
+++ b/Documentation/Comparador Tabla de NDout con graficos.xlsx
@@ -7,17 +7,20 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="8910" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráfico3" sheetId="6" r:id="rId1"/>
-    <sheet name="RAW Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="RAW Data" sheetId="1" r:id="rId1"/>
+    <sheet name="EXP-1005" sheetId="6" r:id="rId2"/>
+    <sheet name="RAMPA-1005" sheetId="7" r:id="rId3"/>
+    <sheet name="EXP-1315" sheetId="11" r:id="rId4"/>
+    <sheet name="RAMPA-1315" sheetId="10" r:id="rId5"/>
+    <sheet name="EXP-1635" sheetId="12" r:id="rId6"/>
+    <sheet name="RAMPA-1635" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="33">
   <si>
     <t>EXP</t>
   </si>
@@ -435,6 +438,34 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,46 +478,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +506,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -962,11 +965,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67133824"/>
-        <c:axId val="67135360"/>
+        <c:axId val="144235904"/>
+        <c:axId val="144246272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67133824"/>
+        <c:axId val="144235904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,12 +977,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67135360"/>
+        <c:crossAx val="144246272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67135360"/>
+        <c:axId val="144246272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -990,7 +993,2552 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67133824"/>
+        <c:crossAx val="144235904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$5:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="114300" prst="artDeco"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.8875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4673743365594665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.517327505463627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1027162035591642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5335622853574868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6153605994380174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.321261317514836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.394005619731491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="101600" prst="riblet"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0561999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9438000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3707999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.325799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$22:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7728374846490473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8389646377176758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9649526088736327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8057121264603051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5312844412255542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.338382088988258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657335390622539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$5:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="152400" h="50800" prst="softRound"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0336999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9326000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.610999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$5:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1457.3688711516534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801.41106043329523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5567.930444697834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355.3734321550744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2534.6493728620294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56574.743443557585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9634.5014245014245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$22:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$22:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9663000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7079000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3257999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.262999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$22:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3612.5364431486878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.21400778210125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14912.490272373543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.3891050583657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6383.735408560311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155001.16731517512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25999.922178988327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="60028800"/>
+        <c:axId val="60030336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60028800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60030336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60030336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60028800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$5:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="114300" prst="artDeco"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.8875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4673743365594665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.517327505463627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1027162035591642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5335622853574868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6153605994380174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.321261317514836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.394005619731491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="101600" prst="riblet"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0561999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9438000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3707999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.325799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$22:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7728374846490473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8389646377176758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9649526088736327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8057121264603051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5312844412255542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.338382088988258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657335390622539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$5:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="152400" h="50800" prst="softRound"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0336999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9326000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.610999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$5:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1457.3688711516534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801.41106043329523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5567.930444697834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355.3734321550744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2534.6493728620294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56574.743443557585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9634.5014245014245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$22:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$22:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9663000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7079000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3257999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.262999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$22:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3612.5364431486878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.21400778210125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14912.490272373543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.3891050583657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6383.735408560311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155001.16731517512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25999.922178988327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="153265280"/>
+        <c:axId val="153267200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="153265280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153267200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="153267200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153265280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$5:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="114300" prst="artDeco"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.8875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4673743365594665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.517327505463627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1027162035591642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5335622853574868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6153605994380174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.321261317514836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.394005619731491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="101600" prst="riblet"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0561999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9438000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3707999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.325799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$22:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7728374846490473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8389646377176758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9649526088736327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8057121264603051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5312844412255542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.338382088988258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657335390622539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$5:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="152400" h="50800" prst="softRound"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0336999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9326000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.610999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$5:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1457.3688711516534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801.41106043329523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5567.930444697834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355.3734321550744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2534.6493728620294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56574.743443557585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9634.5014245014245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$22:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$22:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9663000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7079000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3257999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.262999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$22:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3612.5364431486878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.21400778210125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14912.490272373543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.3891050583657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6383.735408560311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155001.16731517512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25999.922178988327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="60108800"/>
+        <c:axId val="60110720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60108800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60110720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60110720"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60108800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$5:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="114300" prst="artDeco"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.8875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4673743365594665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.517327505463627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1027162035591642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5335622853574868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6153605994380174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.321261317514836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.394005619731491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="101600" prst="riblet"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0561999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9438000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3707999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.325799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$22:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7728374846490473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8389646377176758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9649526088736327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8057121264603051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5312844412255542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.338382088988258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657335390622539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$5:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="152400" h="50800" prst="softRound"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0336999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9326000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.610999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$5:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1457.3688711516534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801.41106043329523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5567.930444697834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355.3734321550744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2534.6493728620294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56574.743443557585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9634.5014245014245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$22:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$22:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9663000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7079000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3257999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.262999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$22:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3612.5364431486878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.21400778210125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14912.490272373543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.3891050583657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6383.735408560311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155001.16731517512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25999.922178988327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="154551424"/>
+        <c:axId val="154553344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="154551424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154553344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="154553344"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154551424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$5:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="114300" prst="artDeco"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.8875999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4673743365594665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.517327505463627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1027162035591642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5335622853574868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6153605994380174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.321261317514836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.394005619731491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$A$22:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>menos 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="101600" prst="riblet"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0561999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9438000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3707999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.325799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$T$22:$T$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7728374846490473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8389646377176758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9649526088736327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8057121264603051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5312844412255542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.338382088988258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657335390622539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$5:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 5mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="152400" h="50800" prst="softRound"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0336999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9326000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.610999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$5:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1457.3688711516534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801.41106043329523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5567.930444697834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1355.3734321550744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2534.6493728620294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56574.743443557585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9634.5014245014245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW Data'!$I$22:$I$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mas 8mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$L$22:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9663000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7079000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3257999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.262999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW Data'!$X$22:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3612.5364431486878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.21400778210125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14912.490272373543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.3891050583657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6383.735408560311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155001.16731517512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25999.922178988327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="164034432"/>
+        <c:axId val="166666240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="164034432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166666240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166666240"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164034432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1014,7 +3562,62 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1048,8 +3651,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="-97414"/>
+    <xdr:ext cx="8680739" cy="6396904"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="-97414"/>
+    <xdr:ext cx="8680739" cy="6396904"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="-97414"/>
+    <xdr:ext cx="8680739" cy="6396904"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="-97414"/>
+    <xdr:ext cx="8680739" cy="6396904"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="-97414"/>
+    <xdr:ext cx="8680739" cy="6396904"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1335,11 +4073,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
@@ -1361,85 +4099,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="A2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="107" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="72"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="93" t="s">
+      <c r="M2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="101" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="15">
       <c r="A3" s="106"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="96"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="73"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="92"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="102"/>
       <c r="T3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1470,7 +4208,7 @@
       <c r="X4" s="43"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1494,7 +4232,7 @@
       <c r="H5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="94" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
@@ -1515,7 +4253,7 @@
       <c r="O5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="97" t="s">
+      <c r="Q5" s="92" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="10" t="s">
@@ -1528,7 +4266,7 @@
         <f>(ABS(E5-F5)/E5)*100</f>
         <v>1.4673743365594665</v>
       </c>
-      <c r="U5" s="101" t="s">
+      <c r="U5" s="94" t="s">
         <v>19</v>
       </c>
       <c r="V5" s="21" t="s">
@@ -1537,13 +4275,13 @@
       <c r="W5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="108">
+      <c r="X5" s="91">
         <f>(ABS(M5-N5)/M5)*100</f>
         <v>1457.3688711516534</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="97"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
         <v>3</v>
@@ -1563,7 +4301,7 @@
       <c r="H6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="94"/>
       <c r="J6" s="23"/>
       <c r="K6" s="16" t="s">
         <v>3</v>
@@ -1580,7 +4318,7 @@
       <c r="O6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="97"/>
+      <c r="Q6" s="92"/>
       <c r="R6" s="12"/>
       <c r="S6" s="6" t="s">
         <v>3</v>
@@ -1589,18 +4327,18 @@
         <f t="shared" ref="T6:T36" si="0">(ABS(E6-F6)/E6)*100</f>
         <v>1.517327505463627</v>
       </c>
-      <c r="U6" s="101"/>
+      <c r="U6" s="94"/>
       <c r="V6" s="23"/>
       <c r="W6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="108">
+      <c r="X6" s="91">
         <f t="shared" ref="X6:X36" si="1">(ABS(M6-N6)/M6)*100</f>
         <v>801.41106043329523</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="97"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -1620,7 +4358,7 @@
       <c r="H7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="23"/>
       <c r="K7" s="16" t="s">
         <v>2</v>
@@ -1637,7 +4375,7 @@
       <c r="O7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="97"/>
+      <c r="Q7" s="92"/>
       <c r="R7" s="12"/>
       <c r="S7" s="6" t="s">
         <v>2</v>
@@ -1646,18 +4384,18 @@
         <f t="shared" si="0"/>
         <v>7.1027162035591642</v>
       </c>
-      <c r="U7" s="101"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="23"/>
       <c r="W7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="108">
+      <c r="X7" s="91">
         <f t="shared" si="1"/>
         <v>5567.930444697834</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="97"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -1677,7 +4415,7 @@
       <c r="H8" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="101"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="23"/>
       <c r="K8" s="16" t="s">
         <v>4</v>
@@ -1694,7 +4432,7 @@
       <c r="O8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="97"/>
+      <c r="Q8" s="92"/>
       <c r="R8" s="12"/>
       <c r="S8" s="6" t="s">
         <v>4</v>
@@ -1703,18 +4441,18 @@
         <f t="shared" si="0"/>
         <v>7.5335622853574868</v>
       </c>
-      <c r="U8" s="101"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="23"/>
       <c r="W8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="108">
+      <c r="X8" s="91">
         <f t="shared" si="1"/>
         <v>1355.3734321550744</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="97"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1734,7 +4472,7 @@
       <c r="H9" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="23"/>
       <c r="K9" s="16" t="s">
         <v>8</v>
@@ -1751,7 +4489,7 @@
       <c r="O9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="97"/>
+      <c r="Q9" s="92"/>
       <c r="R9" s="12"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
@@ -1760,18 +4498,18 @@
         <f t="shared" si="0"/>
         <v>3.6153605994380174</v>
       </c>
-      <c r="U9" s="101"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="23"/>
       <c r="W9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="108">
+      <c r="X9" s="91">
         <f t="shared" si="1"/>
         <v>2534.6493728620294</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="97"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="12"/>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1791,7 +4529,7 @@
       <c r="H10" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="101"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="23"/>
       <c r="K10" s="59" t="s">
         <v>5</v>
@@ -1808,7 +4546,7 @@
       <c r="O10" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="97"/>
+      <c r="Q10" s="92"/>
       <c r="R10" s="12"/>
       <c r="S10" s="6" t="s">
         <v>5</v>
@@ -1817,18 +4555,18 @@
         <f t="shared" si="0"/>
         <v>17.321261317514836</v>
       </c>
-      <c r="U10" s="101"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="23"/>
       <c r="W10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="108">
+      <c r="X10" s="91">
         <f t="shared" si="1"/>
         <v>56574.743443557585</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="97"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -1848,7 +4586,7 @@
       <c r="H11" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="101"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="25"/>
       <c r="K11" s="19" t="s">
         <v>6</v>
@@ -1865,7 +4603,7 @@
       <c r="O11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="97"/>
+      <c r="Q11" s="92"/>
       <c r="R11" s="14"/>
       <c r="S11" s="8" t="s">
         <v>6</v>
@@ -1874,18 +4612,18 @@
         <f t="shared" si="0"/>
         <v>16.394005619731491</v>
       </c>
-      <c r="U11" s="101"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="25"/>
       <c r="W11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X11" s="108">
+      <c r="X11" s="91">
         <f t="shared" si="1"/>
         <v>9634.5014245014245</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="97"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1893,24 +4631,24 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="74"/>
-      <c r="I12" s="101"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="18"/>
-      <c r="Q12" s="97"/>
+      <c r="Q12" s="92"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="101"/>
+      <c r="U12" s="94"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="108"/>
+      <c r="X12" s="91"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="97"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1932,7 +4670,7 @@
       <c r="H13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="21" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +4689,7 @@
       <c r="O13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="97"/>
+      <c r="Q13" s="92"/>
       <c r="R13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1962,20 +4700,20 @@
         <f t="shared" si="0"/>
         <v>1.4985950671245722</v>
       </c>
-      <c r="U13" s="101"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="W13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="108">
+      <c r="X13" s="91">
         <f t="shared" si="1"/>
         <v>1485.7468643101481</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="97"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>3</v>
@@ -1995,7 +4733,7 @@
       <c r="H14" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="94"/>
       <c r="J14" s="23"/>
       <c r="K14" s="16" t="s">
         <v>3</v>
@@ -2012,7 +4750,7 @@
       <c r="O14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="97"/>
+      <c r="Q14" s="92"/>
       <c r="R14" s="12"/>
       <c r="S14" s="6" t="s">
         <v>3</v>
@@ -2021,18 +4759,18 @@
         <f t="shared" si="0"/>
         <v>1.5079612862941065</v>
       </c>
-      <c r="U14" s="101"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="23"/>
       <c r="W14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="108">
+      <c r="X14" s="91">
         <f t="shared" si="1"/>
         <v>806.84150513112888</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="97"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
         <v>2</v>
@@ -2052,7 +4790,7 @@
       <c r="H15" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="94"/>
       <c r="J15" s="23"/>
       <c r="K15" s="16" t="s">
         <v>2</v>
@@ -2069,7 +4807,7 @@
       <c r="O15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="97"/>
+      <c r="Q15" s="92"/>
       <c r="R15" s="12"/>
       <c r="S15" s="6" t="s">
         <v>2</v>
@@ -2078,18 +4816,18 @@
         <f t="shared" si="0"/>
         <v>7.1776459569153852</v>
       </c>
-      <c r="U15" s="101"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="23"/>
       <c r="W15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X15" s="108">
+      <c r="X15" s="91">
         <f t="shared" si="1"/>
         <v>5788.9680729760548</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="97"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -2109,7 +4847,7 @@
       <c r="H16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="101"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="23"/>
       <c r="K16" s="16" t="s">
         <v>4</v>
@@ -2126,7 +4864,7 @@
       <c r="O16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="97"/>
+      <c r="Q16" s="92"/>
       <c r="R16" s="12"/>
       <c r="S16" s="6" t="s">
         <v>4</v>
@@ -2135,18 +4873,18 @@
         <f t="shared" si="0"/>
         <v>7.7146425226350335</v>
       </c>
-      <c r="U16" s="101"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="23"/>
       <c r="W16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X16" s="108">
+      <c r="X16" s="91">
         <f t="shared" si="1"/>
         <v>1354.0906499429877</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="97"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -2166,7 +4904,7 @@
       <c r="H17" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="101"/>
+      <c r="I17" s="94"/>
       <c r="J17" s="23"/>
       <c r="K17" s="16" t="s">
         <v>8</v>
@@ -2183,7 +4921,7 @@
       <c r="O17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="97"/>
+      <c r="Q17" s="92"/>
       <c r="R17" s="12"/>
       <c r="S17" s="6" t="s">
         <v>8</v>
@@ -2192,18 +4930,18 @@
         <f t="shared" si="0"/>
         <v>4.6831095847642805</v>
       </c>
-      <c r="U17" s="101"/>
+      <c r="U17" s="94"/>
       <c r="V17" s="23"/>
       <c r="W17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="108">
+      <c r="X17" s="91">
         <f t="shared" si="1"/>
         <v>3180.7012542759408</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="97"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
         <v>5</v>
@@ -2223,7 +4961,7 @@
       <c r="H18" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="101"/>
+      <c r="I18" s="94"/>
       <c r="J18" s="23"/>
       <c r="K18" s="59" t="s">
         <v>5</v>
@@ -2240,7 +4978,7 @@
       <c r="O18" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="97"/>
+      <c r="Q18" s="92"/>
       <c r="R18" s="12"/>
       <c r="S18" s="6" t="s">
         <v>5</v>
@@ -2249,18 +4987,18 @@
         <f t="shared" si="0"/>
         <v>15.472994068061194</v>
       </c>
-      <c r="U18" s="101"/>
+      <c r="U18" s="94"/>
       <c r="V18" s="23"/>
       <c r="W18" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="X18" s="108">
+      <c r="X18" s="91">
         <f t="shared" si="1"/>
         <v>56751.482326111749</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="97"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
@@ -2280,7 +5018,7 @@
       <c r="H19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="101"/>
+      <c r="I19" s="94"/>
       <c r="J19" s="25"/>
       <c r="K19" s="19" t="s">
         <v>6</v>
@@ -2297,7 +5035,7 @@
       <c r="O19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="97"/>
+      <c r="Q19" s="92"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8" t="s">
         <v>6</v>
@@ -2306,18 +5044,18 @@
         <f t="shared" si="0"/>
         <v>16.781142678738671</v>
       </c>
-      <c r="U19" s="101"/>
+      <c r="U19" s="94"/>
       <c r="V19" s="25"/>
       <c r="W19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X19" s="108">
+      <c r="X19" s="91">
         <f t="shared" si="1"/>
         <v>9638.803418803418</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="98"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2325,21 +5063,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="74"/>
-      <c r="I20" s="102"/>
+      <c r="I20" s="95"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="20"/>
-      <c r="Q20" s="98"/>
+      <c r="Q20" s="93"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="102"/>
+      <c r="U20" s="95"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
-      <c r="X20" s="108"/>
+      <c r="X20" s="91"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="30"/>
@@ -2364,10 +5102,10 @@
       <c r="U21" s="45"/>
       <c r="V21" s="46"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="108"/>
+      <c r="X21" s="91"/>
     </row>
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="96" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -2391,7 +5129,7 @@
       <c r="H22" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="103" t="s">
+      <c r="I22" s="98" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="48" t="s">
@@ -2412,7 +5150,7 @@
       <c r="O22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="99" t="s">
+      <c r="Q22" s="96" t="s">
         <v>18</v>
       </c>
       <c r="R22" s="33" t="s">
@@ -2425,7 +5163,7 @@
         <f t="shared" si="0"/>
         <v>1.7728374846490473</v>
       </c>
-      <c r="U22" s="103" t="s">
+      <c r="U22" s="98" t="s">
         <v>20</v>
       </c>
       <c r="V22" s="48" t="s">
@@ -2434,13 +5172,13 @@
       <c r="W22" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X22" s="108">
+      <c r="X22" s="91">
         <f t="shared" si="1"/>
         <v>3612.5364431486878</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="99"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="36"/>
       <c r="C23" s="37" t="s">
         <v>3</v>
@@ -2460,7 +5198,7 @@
       <c r="H23" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="103"/>
+      <c r="I23" s="98"/>
       <c r="J23" s="51"/>
       <c r="K23" s="52" t="s">
         <v>3</v>
@@ -2477,7 +5215,7 @@
       <c r="O23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" s="99"/>
+      <c r="Q23" s="96"/>
       <c r="R23" s="36"/>
       <c r="S23" s="37" t="s">
         <v>3</v>
@@ -2486,18 +5224,18 @@
         <f t="shared" si="0"/>
         <v>1.8389646377176758</v>
       </c>
-      <c r="U23" s="103"/>
+      <c r="U23" s="98"/>
       <c r="V23" s="51"/>
       <c r="W23" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="X23" s="108">
+      <c r="X23" s="91">
         <f t="shared" si="1"/>
         <v>835.21400778210125</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="99"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37" t="s">
         <v>2</v>
@@ -2517,7 +5255,7 @@
       <c r="H24" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="103"/>
+      <c r="I24" s="98"/>
       <c r="J24" s="51"/>
       <c r="K24" s="52" t="s">
         <v>2</v>
@@ -2534,7 +5272,7 @@
       <c r="O24" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="99"/>
+      <c r="Q24" s="96"/>
       <c r="R24" s="36"/>
       <c r="S24" s="37" t="s">
         <v>2</v>
@@ -2543,18 +5281,18 @@
         <f t="shared" si="0"/>
         <v>8.9649526088736327</v>
       </c>
-      <c r="U24" s="103"/>
+      <c r="U24" s="98"/>
       <c r="V24" s="51"/>
       <c r="W24" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="X24" s="108">
+      <c r="X24" s="91">
         <f t="shared" si="1"/>
         <v>14912.490272373543</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="99"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37" t="s">
         <v>4</v>
@@ -2574,7 +5312,7 @@
       <c r="H25" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="103"/>
+      <c r="I25" s="98"/>
       <c r="J25" s="51"/>
       <c r="K25" s="52" t="s">
         <v>4</v>
@@ -2591,7 +5329,7 @@
       <c r="O25" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="99"/>
+      <c r="Q25" s="96"/>
       <c r="R25" s="36"/>
       <c r="S25" s="37" t="s">
         <v>4</v>
@@ -2600,18 +5338,18 @@
         <f t="shared" si="0"/>
         <v>9.8057121264603051</v>
       </c>
-      <c r="U25" s="103"/>
+      <c r="U25" s="98"/>
       <c r="V25" s="51"/>
       <c r="W25" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="X25" s="108">
+      <c r="X25" s="91">
         <f t="shared" si="1"/>
         <v>1250.3891050583657</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="99"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37" t="s">
         <v>8</v>
@@ -2631,7 +5369,7 @@
       <c r="H26" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="103"/>
+      <c r="I26" s="98"/>
       <c r="J26" s="51"/>
       <c r="K26" s="52" t="s">
         <v>8</v>
@@ -2648,7 +5386,7 @@
       <c r="O26" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="99"/>
+      <c r="Q26" s="96"/>
       <c r="R26" s="36"/>
       <c r="S26" s="37" t="s">
         <v>8</v>
@@ -2657,18 +5395,18 @@
         <f t="shared" si="0"/>
         <v>4.5312844412255542</v>
       </c>
-      <c r="U26" s="103"/>
+      <c r="U26" s="98"/>
       <c r="V26" s="51"/>
       <c r="W26" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="X26" s="108">
+      <c r="X26" s="91">
         <f t="shared" si="1"/>
         <v>6383.735408560311</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="99"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37" t="s">
         <v>5</v>
@@ -2688,7 +5426,7 @@
       <c r="H27" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="103"/>
+      <c r="I27" s="98"/>
       <c r="J27" s="51"/>
       <c r="K27" s="60" t="s">
         <v>5</v>
@@ -2705,7 +5443,7 @@
       <c r="O27" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="Q27" s="99"/>
+      <c r="Q27" s="96"/>
       <c r="R27" s="36"/>
       <c r="S27" s="37" t="s">
         <v>5</v>
@@ -2714,18 +5452,18 @@
         <f t="shared" si="0"/>
         <v>22.338382088988258</v>
       </c>
-      <c r="U27" s="103"/>
+      <c r="U27" s="98"/>
       <c r="V27" s="51"/>
       <c r="W27" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="X27" s="108">
+      <c r="X27" s="91">
         <f t="shared" si="1"/>
         <v>155001.16731517512</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="99"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="s">
         <v>6</v>
@@ -2745,7 +5483,7 @@
       <c r="H28" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="103"/>
+      <c r="I28" s="98"/>
       <c r="J28" s="56"/>
       <c r="K28" s="57" t="s">
         <v>6</v>
@@ -2762,7 +5500,7 @@
       <c r="O28" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="99"/>
+      <c r="Q28" s="96"/>
       <c r="R28" s="39"/>
       <c r="S28" s="40" t="s">
         <v>6</v>
@@ -2771,18 +5509,18 @@
         <f t="shared" si="0"/>
         <v>25.657335390622539</v>
       </c>
-      <c r="U28" s="103"/>
+      <c r="U28" s="98"/>
       <c r="V28" s="56"/>
       <c r="W28" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="X28" s="108">
+      <c r="X28" s="91">
         <f t="shared" si="1"/>
         <v>25999.922178988327</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="99"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -2790,24 +5528,24 @@
       <c r="F29" s="37"/>
       <c r="G29" s="35"/>
       <c r="H29" s="74"/>
-      <c r="I29" s="103"/>
+      <c r="I29" s="98"/>
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="50"/>
-      <c r="Q29" s="99"/>
+      <c r="Q29" s="96"/>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="103"/>
+      <c r="U29" s="98"/>
       <c r="V29" s="52"/>
       <c r="W29" s="52"/>
-      <c r="X29" s="108"/>
+      <c r="X29" s="91"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="99"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="33" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +5567,7 @@
       <c r="H30" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="103"/>
+      <c r="I30" s="98"/>
       <c r="J30" s="48" t="s">
         <v>7</v>
       </c>
@@ -2848,7 +5586,7 @@
       <c r="O30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q30" s="99"/>
+      <c r="Q30" s="96"/>
       <c r="R30" s="33" t="s">
         <v>7</v>
       </c>
@@ -2859,20 +5597,20 @@
         <f t="shared" si="0"/>
         <v>1.8137733413105734</v>
       </c>
-      <c r="U30" s="103"/>
+      <c r="U30" s="98"/>
       <c r="V30" s="48" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="108">
+      <c r="X30" s="91">
         <f t="shared" si="1"/>
         <v>3813.4305150631681</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="99"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37" t="s">
         <v>3</v>
@@ -2892,7 +5630,7 @@
       <c r="H31" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="103"/>
+      <c r="I31" s="98"/>
       <c r="J31" s="51"/>
       <c r="K31" s="52" t="s">
         <v>3</v>
@@ -2909,7 +5647,7 @@
       <c r="O31" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="99"/>
+      <c r="Q31" s="96"/>
       <c r="R31" s="36"/>
       <c r="S31" s="37" t="s">
         <v>3</v>
@@ -2918,18 +5656,18 @@
         <f t="shared" si="0"/>
         <v>1.8641559341247644</v>
       </c>
-      <c r="U31" s="103"/>
+      <c r="U31" s="98"/>
       <c r="V31" s="51"/>
       <c r="W31" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="X31" s="108">
+      <c r="X31" s="91">
         <f t="shared" si="1"/>
         <v>851.82879377431925</v>
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="99"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37" t="s">
         <v>2</v>
@@ -2949,7 +5687,7 @@
       <c r="H32" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="103"/>
+      <c r="I32" s="98"/>
       <c r="J32" s="51"/>
       <c r="K32" s="52" t="s">
         <v>2</v>
@@ -2966,7 +5704,7 @@
       <c r="O32" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" s="99"/>
+      <c r="Q32" s="96"/>
       <c r="R32" s="36"/>
       <c r="S32" s="37" t="s">
         <v>2</v>
@@ -2975,18 +5713,18 @@
         <f t="shared" si="0"/>
         <v>8.9366124004156511</v>
       </c>
-      <c r="U32" s="103"/>
+      <c r="U32" s="98"/>
       <c r="V32" s="51"/>
       <c r="W32" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="X32" s="108">
+      <c r="X32" s="91">
         <f t="shared" si="1"/>
         <v>16017.237354085606</v>
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="99"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="36"/>
       <c r="C33" s="37" t="s">
         <v>4</v>
@@ -3006,7 +5744,7 @@
       <c r="H33" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="103"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="51"/>
       <c r="K33" s="52" t="s">
         <v>4</v>
@@ -3023,7 +5761,7 @@
       <c r="O33" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" s="99"/>
+      <c r="Q33" s="96"/>
       <c r="R33" s="36"/>
       <c r="S33" s="37" t="s">
         <v>4</v>
@@ -3032,18 +5770,18 @@
         <f t="shared" si="0"/>
         <v>10.177283748464903</v>
       </c>
-      <c r="U33" s="103"/>
+      <c r="U33" s="98"/>
       <c r="V33" s="51"/>
       <c r="W33" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="108">
+      <c r="X33" s="91">
         <f t="shared" si="1"/>
         <v>1252.9182879377431</v>
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="99"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="36"/>
       <c r="C34" s="37" t="s">
         <v>8</v>
@@ -3063,7 +5801,7 @@
       <c r="H34" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="103"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="51"/>
       <c r="K34" s="52" t="s">
         <v>8</v>
@@ -3080,7 +5818,7 @@
       <c r="O34" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="99"/>
+      <c r="Q34" s="96"/>
       <c r="R34" s="36"/>
       <c r="S34" s="37" t="s">
         <v>8</v>
@@ -3089,18 +5827,18 @@
         <f t="shared" si="0"/>
         <v>5.6806373397991026</v>
       </c>
-      <c r="U34" s="103"/>
+      <c r="U34" s="98"/>
       <c r="V34" s="51"/>
       <c r="W34" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="X34" s="108">
+      <c r="X34" s="91">
         <f t="shared" si="1"/>
         <v>7907.3929961089489</v>
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="99"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="36"/>
       <c r="C35" s="37" t="s">
         <v>5</v>
@@ -3120,7 +5858,7 @@
       <c r="H35" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="103"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="51"/>
       <c r="K35" s="60" t="s">
         <v>5</v>
@@ -3137,7 +5875,7 @@
       <c r="O35" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="Q35" s="99"/>
+      <c r="Q35" s="96"/>
       <c r="R35" s="36"/>
       <c r="S35" s="37" t="s">
         <v>5</v>
@@ -3146,18 +5884,18 @@
         <f t="shared" si="0"/>
         <v>20.899329281733159</v>
       </c>
-      <c r="U35" s="103"/>
+      <c r="U35" s="98"/>
       <c r="V35" s="51"/>
       <c r="W35" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="108">
+      <c r="X35" s="91">
         <f t="shared" si="1"/>
         <v>154915.56420233464</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="99"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="39"/>
       <c r="C36" s="40" t="s">
         <v>6</v>
@@ -3177,7 +5915,7 @@
       <c r="H36" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="103"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="56"/>
       <c r="K36" s="57" t="s">
         <v>6</v>
@@ -3194,7 +5932,7 @@
       <c r="O36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="99"/>
+      <c r="Q36" s="96"/>
       <c r="R36" s="39"/>
       <c r="S36" s="40" t="s">
         <v>6</v>
@@ -3203,18 +5941,18 @@
         <f t="shared" si="0"/>
         <v>27.571873917561479</v>
       </c>
-      <c r="U36" s="103"/>
+      <c r="U36" s="98"/>
       <c r="V36" s="56"/>
       <c r="W36" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="X36" s="108">
+      <c r="X36" s="91">
         <f t="shared" si="1"/>
         <v>26162.957198443582</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="100"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -3222,103 +5960,103 @@
       <c r="F37" s="40"/>
       <c r="G37" s="41"/>
       <c r="H37" s="75"/>
-      <c r="I37" s="104"/>
+      <c r="I37" s="99"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
       <c r="O37" s="58"/>
-      <c r="Q37" s="100"/>
+      <c r="Q37" s="97"/>
       <c r="R37" s="40"/>
       <c r="S37" s="40"/>
       <c r="T37" s="40"/>
-      <c r="U37" s="104"/>
+      <c r="U37" s="99"/>
       <c r="V37" s="57"/>
       <c r="W37" s="57"/>
       <c r="X37" s="57"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" customHeight="1"/>
     <row r="39" spans="1:24">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="107"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
     </row>
     <row r="40" spans="1:24" ht="15">
       <c r="A40" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="93" t="s">
+      <c r="F40" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="95" t="s">
+      <c r="G40" s="107" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="72"/>
-      <c r="I40" s="95" t="s">
+      <c r="I40" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="93" t="s">
+      <c r="J40" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="93" t="s">
+      <c r="K40" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="93" t="s">
+      <c r="L40" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="93" t="s">
+      <c r="M40" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="93" t="s">
+      <c r="N40" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="91" t="s">
+      <c r="O40" s="101" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15">
       <c r="A41" s="106"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="96"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="108"/>
       <c r="H41" s="73"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="92"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="102"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="27"/>
@@ -3336,9 +6074,17 @@
       <c r="M42" s="43"/>
       <c r="N42" s="43"/>
       <c r="O42" s="44"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3362,7 +6108,7 @@
       <c r="H43" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="101" t="s">
+      <c r="I43" s="94" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="21" t="s">
@@ -3383,9 +6129,35 @@
       <c r="O43" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q43" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="5">
+        <f>(ABS(E43-F43)/E43)*100</f>
+        <v>1.4677867649355156</v>
+      </c>
+      <c r="U43" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X43" s="91">
+        <f>(ABS(M43-N43)/M43)*100</f>
+        <v>100.89333910034601</v>
+      </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="97"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="12"/>
       <c r="C44" s="6" t="s">
         <v>3</v>
@@ -3405,7 +6177,7 @@
       <c r="H44" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="101"/>
+      <c r="I44" s="94"/>
       <c r="J44" s="23"/>
       <c r="K44" s="16" t="s">
         <v>3</v>
@@ -3422,9 +6194,27 @@
       <c r="O44" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="5">
+        <f t="shared" ref="T44:T74" si="2">(ABS(E44-F44)/E44)*100</f>
+        <v>1.592704787483205</v>
+      </c>
+      <c r="U44" s="94"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44" s="91">
+        <f t="shared" ref="X44:X74" si="3">(ABS(M44-N44)/M44)*100</f>
+        <v>99.277056901191855</v>
+      </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="97"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -3444,7 +6234,7 @@
       <c r="H45" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="101"/>
+      <c r="I45" s="94"/>
       <c r="J45" s="23"/>
       <c r="K45" s="16" t="s">
         <v>2</v>
@@ -3461,9 +6251,27 @@
       <c r="O45" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="5">
+        <f t="shared" si="2"/>
+        <v>7.2483682583304692</v>
+      </c>
+      <c r="U45" s="94"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" s="91">
+        <f t="shared" si="3"/>
+        <v>103.61012110726644</v>
+      </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="97"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="12"/>
       <c r="C46" s="6" t="s">
         <v>4</v>
@@ -3483,7 +6291,7 @@
       <c r="H46" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="101"/>
+      <c r="I46" s="94"/>
       <c r="J46" s="23"/>
       <c r="K46" s="16" t="s">
         <v>4</v>
@@ -3500,9 +6308,27 @@
       <c r="O46" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="2"/>
+        <v>7.6075075731551101</v>
+      </c>
+      <c r="U46" s="94"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="91">
+        <f t="shared" si="3"/>
+        <v>98.633881199538649</v>
+      </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="97"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
         <v>8</v>
@@ -3522,7 +6348,7 @@
       <c r="H47" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="101"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="23"/>
       <c r="K47" s="16" t="s">
         <v>8</v>
@@ -3539,9 +6365,27 @@
       <c r="O47" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8630898472877289</v>
+      </c>
+      <c r="U47" s="94"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="91">
+        <f t="shared" si="3"/>
+        <v>101.79718377547098</v>
+      </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="97"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="12"/>
       <c r="C48" s="6" t="s">
         <v>5</v>
@@ -3561,7 +6405,7 @@
       <c r="H48" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="101"/>
+      <c r="I48" s="94"/>
       <c r="J48" s="23"/>
       <c r="K48" s="59" t="s">
         <v>5</v>
@@ -3578,9 +6422,27 @@
       <c r="O48" s="86" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="97"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="5">
+        <f t="shared" si="2"/>
+        <v>17.010711720433456</v>
+      </c>
+      <c r="U48" s="94"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="91">
+        <f t="shared" si="3"/>
+        <v>61.795463283352561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="92"/>
       <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
         <v>6</v>
@@ -3600,7 +6462,7 @@
       <c r="H49" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="101"/>
+      <c r="I49" s="94"/>
       <c r="J49" s="25"/>
       <c r="K49" s="19" t="s">
         <v>6</v>
@@ -3617,9 +6479,27 @@
       <c r="O49" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="97"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="5">
+        <f t="shared" si="2"/>
+        <v>16.592236344898669</v>
+      </c>
+      <c r="U49" s="94"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="91">
+        <f t="shared" si="3"/>
+        <v>106.42961361014993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="92"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -3627,16 +6507,24 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
       <c r="H50" s="74"/>
-      <c r="I50" s="101"/>
+      <c r="I50" s="94"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="18"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="97"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="91"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="92"/>
       <c r="B51" s="10" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +6538,7 @@
       <c r="H51" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="101"/>
+      <c r="I51" s="94"/>
       <c r="J51" s="21" t="s">
         <v>7</v>
       </c>
@@ -3661,9 +6549,31 @@
       <c r="M51" s="22"/>
       <c r="N51" s="69"/>
       <c r="O51" s="18"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="97"/>
+      <c r="Q51" s="92"/>
+      <c r="R51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="5" t="e">
+        <f t="shared" ref="T51:T75" si="4">(ABS(E51-F51)/E51)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U51" s="94"/>
+      <c r="V51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X51" s="91" t="e">
+        <f t="shared" ref="X51:X75" si="5">(ABS(M51-N51)/M51)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="92"/>
       <c r="B52" s="12"/>
       <c r="C52" s="6" t="s">
         <v>3</v>
@@ -3675,7 +6585,7 @@
       <c r="H52" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="101"/>
+      <c r="I52" s="94"/>
       <c r="J52" s="23"/>
       <c r="K52" s="16" t="s">
         <v>3</v>
@@ -3684,9 +6594,27 @@
       <c r="M52" s="17"/>
       <c r="N52" s="26"/>
       <c r="O52" s="18"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="97"/>
+      <c r="Q52" s="92"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U52" s="94"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="92"/>
       <c r="B53" s="12"/>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -3698,7 +6626,7 @@
       <c r="H53" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="101"/>
+      <c r="I53" s="94"/>
       <c r="J53" s="23"/>
       <c r="K53" s="16" t="s">
         <v>2</v>
@@ -3707,9 +6635,27 @@
       <c r="M53" s="17"/>
       <c r="N53" s="26"/>
       <c r="O53" s="18"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="97"/>
+      <c r="Q53" s="92"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T53" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U53" s="94"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X53" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="92"/>
       <c r="B54" s="12"/>
       <c r="C54" s="6" t="s">
         <v>4</v>
@@ -3721,7 +6667,7 @@
       <c r="H54" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="101"/>
+      <c r="I54" s="94"/>
       <c r="J54" s="23"/>
       <c r="K54" s="16" t="s">
         <v>4</v>
@@ -3730,9 +6676,27 @@
       <c r="M54" s="17"/>
       <c r="N54" s="24"/>
       <c r="O54" s="18"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="97"/>
+      <c r="Q54" s="92"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U54" s="94"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="92"/>
       <c r="B55" s="12"/>
       <c r="C55" s="6" t="s">
         <v>8</v>
@@ -3744,7 +6708,7 @@
       <c r="H55" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="101"/>
+      <c r="I55" s="94"/>
       <c r="J55" s="23"/>
       <c r="K55" s="16" t="s">
         <v>8</v>
@@ -3753,9 +6717,27 @@
       <c r="M55" s="17"/>
       <c r="N55" s="26"/>
       <c r="O55" s="18"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="97"/>
+      <c r="Q55" s="92"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T55" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U55" s="94"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X55" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="92"/>
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
         <v>5</v>
@@ -3767,7 +6749,7 @@
       <c r="H56" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="101"/>
+      <c r="I56" s="94"/>
       <c r="J56" s="23"/>
       <c r="K56" s="16" t="s">
         <v>5</v>
@@ -3776,9 +6758,27 @@
       <c r="M56" s="17"/>
       <c r="N56" s="24"/>
       <c r="O56" s="18"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="97"/>
+      <c r="Q56" s="92"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T56" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U56" s="94"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="X56" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="92"/>
       <c r="B57" s="14"/>
       <c r="C57" s="8" t="s">
         <v>6</v>
@@ -3790,7 +6790,7 @@
       <c r="H57" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="101"/>
+      <c r="I57" s="94"/>
       <c r="J57" s="25"/>
       <c r="K57" s="19" t="s">
         <v>6</v>
@@ -3799,9 +6799,27 @@
       <c r="M57" s="65"/>
       <c r="N57" s="66"/>
       <c r="O57" s="18"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="98"/>
+      <c r="Q57" s="92"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T57" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U57" s="94"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X57" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="93"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3809,15 +6827,23 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="74"/>
-      <c r="I58" s="102"/>
+      <c r="I58" s="95"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="Q58" s="93"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="95"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="91"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -3833,9 +6859,17 @@
       <c r="M59" s="46"/>
       <c r="N59" s="46"/>
       <c r="O59" s="47"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="99" t="s">
+      <c r="Q59" s="30"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="91"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="96" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="33" t="s">
@@ -3859,7 +6893,7 @@
       <c r="H60" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="103" t="s">
+      <c r="I60" s="98" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="48" t="s">
@@ -3880,9 +6914,35 @@
       <c r="O60" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="99"/>
+      <c r="Q60" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="5">
+        <f t="shared" ref="T60:T75" si="6">(ABS(E60-F60)/E60)*100</f>
+        <v>1.7412935323383192</v>
+      </c>
+      <c r="U60" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="W60" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X60" s="91">
+        <f t="shared" ref="X60:X75" si="7">(ABS(M60-N60)/M60)*100</f>
+        <v>2587.0874042777923</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="96"/>
       <c r="B61" s="36"/>
       <c r="C61" s="37" t="s">
         <v>3</v>
@@ -3902,7 +6962,7 @@
       <c r="H61" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="103"/>
+      <c r="I61" s="98"/>
       <c r="J61" s="51"/>
       <c r="K61" s="52" t="s">
         <v>3</v>
@@ -3919,9 +6979,27 @@
       <c r="O61" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="99"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T61" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0057938157314648</v>
+      </c>
+      <c r="U61" s="98"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="X61" s="91">
+        <f t="shared" si="7"/>
+        <v>810.50963823607083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="15" customHeight="1">
+      <c r="A62" s="96"/>
       <c r="B62" s="36"/>
       <c r="C62" s="37" t="s">
         <v>2</v>
@@ -3941,7 +7019,7 @@
       <c r="H62" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="103"/>
+      <c r="I62" s="98"/>
       <c r="J62" s="51"/>
       <c r="K62" s="52" t="s">
         <v>2</v>
@@ -3958,9 +7036,27 @@
       <c r="O62" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="99"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T62" s="5">
+        <f t="shared" si="6"/>
+        <v>8.9552238805970212</v>
+      </c>
+      <c r="U62" s="98"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="X62" s="91">
+        <f t="shared" si="7"/>
+        <v>10201.161869553736</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="96"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37" t="s">
         <v>4</v>
@@ -3980,7 +7076,7 @@
       <c r="H63" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="103"/>
+      <c r="I63" s="98"/>
       <c r="J63" s="51"/>
       <c r="K63" s="52" t="s">
         <v>4</v>
@@ -3997,9 +7093,27 @@
       <c r="O63" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="99"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T63" s="5">
+        <f t="shared" si="6"/>
+        <v>9.795956924239551</v>
+      </c>
+      <c r="U63" s="98"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X63" s="91">
+        <f t="shared" si="7"/>
+        <v>1275.3102719830999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="96"/>
       <c r="B64" s="36"/>
       <c r="C64" s="37" t="s">
         <v>8</v>
@@ -4019,7 +7133,7 @@
       <c r="H64" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="103"/>
+      <c r="I64" s="98"/>
       <c r="J64" s="51"/>
       <c r="K64" s="52" t="s">
         <v>8</v>
@@ -4036,9 +7150,27 @@
       <c r="O64" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="99"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T64" s="5">
+        <f t="shared" si="6"/>
+        <v>4.7924932300522736</v>
+      </c>
+      <c r="U64" s="98"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="X64" s="91">
+        <f t="shared" si="7"/>
+        <v>4669.448111961975</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="96"/>
       <c r="B65" s="36"/>
       <c r="C65" s="37" t="s">
         <v>5</v>
@@ -4058,7 +7190,7 @@
       <c r="H65" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="103"/>
+      <c r="I65" s="98"/>
       <c r="J65" s="51"/>
       <c r="K65" s="60" t="s">
         <v>5</v>
@@ -4075,9 +7207,27 @@
       <c r="O65" s="81" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="99"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T65" s="5">
+        <f t="shared" si="6"/>
+        <v>21.541029032054912</v>
+      </c>
+      <c r="U65" s="98"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="X65" s="91">
+        <f t="shared" si="7"/>
+        <v>104874.91418008979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" s="96"/>
       <c r="B66" s="39"/>
       <c r="C66" s="40" t="s">
         <v>6</v>
@@ -4097,7 +7247,7 @@
       <c r="H66" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="103"/>
+      <c r="I66" s="98"/>
       <c r="J66" s="56"/>
       <c r="K66" s="57" t="s">
         <v>6</v>
@@ -4114,9 +7264,27 @@
       <c r="O66" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="99"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T66" s="5">
+        <f t="shared" si="6"/>
+        <v>25.590402418288306</v>
+      </c>
+      <c r="U66" s="98"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="X66" s="91">
+        <f t="shared" si="7"/>
+        <v>17786.717718510692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" s="96"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4124,16 +7292,24 @@
       <c r="F67" s="37"/>
       <c r="G67" s="35"/>
       <c r="H67" s="74"/>
-      <c r="I67" s="103"/>
+      <c r="I67" s="98"/>
       <c r="J67" s="52"/>
       <c r="K67" s="52"/>
       <c r="L67" s="52"/>
       <c r="M67" s="52"/>
       <c r="N67" s="52"/>
       <c r="O67" s="50"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="99"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="98"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="91"/>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" s="96"/>
       <c r="B68" s="33" t="s">
         <v>7</v>
       </c>
@@ -4147,7 +7323,7 @@
       <c r="H68" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="103"/>
+      <c r="I68" s="98"/>
       <c r="J68" s="48" t="s">
         <v>7</v>
       </c>
@@ -4158,9 +7334,31 @@
       <c r="M68" s="49"/>
       <c r="N68" s="70"/>
       <c r="O68" s="50"/>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="99"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S68" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T68" s="5" t="e">
+        <f t="shared" ref="T68:T75" si="8">(ABS(E68-F68)/E68)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U68" s="98"/>
+      <c r="V68" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="W68" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X68" s="91" t="e">
+        <f t="shared" ref="X68:X75" si="9">(ABS(M68-N68)/M68)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" s="96"/>
       <c r="B69" s="36"/>
       <c r="C69" s="37" t="s">
         <v>3</v>
@@ -4172,7 +7370,7 @@
       <c r="H69" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="103"/>
+      <c r="I69" s="98"/>
       <c r="J69" s="51"/>
       <c r="K69" s="52" t="s">
         <v>3</v>
@@ -4181,9 +7379,27 @@
       <c r="M69" s="53"/>
       <c r="N69" s="54"/>
       <c r="O69" s="50"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="99"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T69" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U69" s="98"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="X69" s="91" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" s="96"/>
       <c r="B70" s="36"/>
       <c r="C70" s="37" t="s">
         <v>2</v>
@@ -4195,7 +7411,7 @@
       <c r="H70" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="103"/>
+      <c r="I70" s="98"/>
       <c r="J70" s="51"/>
       <c r="K70" s="52" t="s">
         <v>2</v>
@@ -4204,9 +7420,27 @@
       <c r="M70" s="53"/>
       <c r="N70" s="54"/>
       <c r="O70" s="50"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="99"/>
+      <c r="Q70" s="96"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T70" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U70" s="98"/>
+      <c r="V70" s="51"/>
+      <c r="W70" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="X70" s="91" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" s="96"/>
       <c r="B71" s="36"/>
       <c r="C71" s="37" t="s">
         <v>4</v>
@@ -4218,7 +7452,7 @@
       <c r="H71" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="103"/>
+      <c r="I71" s="98"/>
       <c r="J71" s="51"/>
       <c r="K71" s="52" t="s">
         <v>4</v>
@@ -4227,9 +7461,27 @@
       <c r="M71" s="53"/>
       <c r="N71" s="54"/>
       <c r="O71" s="50"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="99"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T71" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U71" s="98"/>
+      <c r="V71" s="51"/>
+      <c r="W71" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X71" s="91" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" s="96"/>
       <c r="B72" s="36"/>
       <c r="C72" s="37" t="s">
         <v>8</v>
@@ -4241,7 +7493,7 @@
       <c r="H72" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="103"/>
+      <c r="I72" s="98"/>
       <c r="J72" s="51"/>
       <c r="K72" s="52" t="s">
         <v>8</v>
@@ -4250,9 +7502,27 @@
       <c r="M72" s="53"/>
       <c r="N72" s="54"/>
       <c r="O72" s="50"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="99"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U72" s="98"/>
+      <c r="V72" s="51"/>
+      <c r="W72" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="X72" s="91" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" s="96"/>
       <c r="B73" s="36"/>
       <c r="C73" s="37" t="s">
         <v>5</v>
@@ -4264,7 +7534,7 @@
       <c r="H73" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="103"/>
+      <c r="I73" s="98"/>
       <c r="J73" s="51"/>
       <c r="K73" s="52" t="s">
         <v>5</v>
@@ -4273,9 +7543,27 @@
       <c r="M73" s="53"/>
       <c r="N73" s="55"/>
       <c r="O73" s="50"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="99"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T73" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U73" s="98"/>
+      <c r="V73" s="51"/>
+      <c r="W73" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="X73" s="91" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" s="96"/>
       <c r="B74" s="39"/>
       <c r="C74" s="40" t="s">
         <v>6</v>
@@ -4287,7 +7575,7 @@
       <c r="H74" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="103"/>
+      <c r="I74" s="98"/>
       <c r="J74" s="56"/>
       <c r="K74" s="57" t="s">
         <v>6</v>
@@ -4296,9 +7584,27 @@
       <c r="M74" s="67"/>
       <c r="N74" s="68"/>
       <c r="O74" s="50"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="100"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T74" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U74" s="98"/>
+      <c r="V74" s="56"/>
+      <c r="W74" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="X74" s="91" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" s="97"/>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
@@ -4306,96 +7612,104 @@
       <c r="F75" s="40"/>
       <c r="G75" s="41"/>
       <c r="H75" s="75"/>
-      <c r="I75" s="104"/>
+      <c r="I75" s="99"/>
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
       <c r="M75" s="57"/>
       <c r="N75" s="57"/>
       <c r="O75" s="58"/>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="107" t="s">
+      <c r="Q75" s="97"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="99"/>
+      <c r="V75" s="57"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="57"/>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="107"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="107"/>
-    </row>
-    <row r="78" spans="1:15" ht="15">
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100"/>
+      <c r="K77" s="100"/>
+      <c r="L77" s="100"/>
+      <c r="M77" s="100"/>
+      <c r="N77" s="100"/>
+      <c r="O77" s="100"/>
+    </row>
+    <row r="78" spans="1:24" ht="15">
       <c r="A78" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="93" t="s">
+      <c r="C78" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="93" t="s">
+      <c r="D78" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="93" t="s">
+      <c r="E78" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="93" t="s">
+      <c r="F78" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="95" t="s">
+      <c r="G78" s="107" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="72"/>
-      <c r="I78" s="95" t="s">
+      <c r="I78" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="J78" s="93" t="s">
+      <c r="J78" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="93" t="s">
+      <c r="K78" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="L78" s="93" t="s">
+      <c r="L78" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M78" s="93" t="s">
+      <c r="M78" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="N78" s="93" t="s">
+      <c r="N78" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O78" s="91" t="s">
+      <c r="O78" s="101" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15">
+    <row r="79" spans="1:24" ht="15">
       <c r="A79" s="106"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="96"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="108"/>
       <c r="H79" s="73"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="94"/>
-      <c r="O79" s="92"/>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="I79" s="108"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="104"/>
+      <c r="M79" s="104"/>
+      <c r="N79" s="104"/>
+      <c r="O79" s="102"/>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="27"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -4411,9 +7725,17 @@
       <c r="M80" s="43"/>
       <c r="N80" s="43"/>
       <c r="O80" s="44"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="97" t="s">
+      <c r="Q80" s="27"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -4437,7 +7759,7 @@
       <c r="H81" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="101" t="s">
+      <c r="I81" s="94" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="21" t="s">
@@ -4458,9 +7780,35 @@
       <c r="O81" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="97"/>
+      <c r="Q81" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="R81" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T81" s="5">
+        <f>(ABS(E81-F81)/E81)*100</f>
+        <v>1.5534162655497792</v>
+      </c>
+      <c r="U81" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="V81" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W81" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X81" s="91">
+        <f>(ABS(M81-N81)/M81)*100</f>
+        <v>900.84745762711873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" s="92"/>
       <c r="B82" s="12"/>
       <c r="C82" s="6" t="s">
         <v>3</v>
@@ -4480,7 +7828,7 @@
       <c r="H82" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="101"/>
+      <c r="I82" s="94"/>
       <c r="J82" s="23"/>
       <c r="K82" s="16" t="s">
         <v>3</v>
@@ -4497,9 +7845,27 @@
       <c r="O82" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="97"/>
+      <c r="Q82" s="92"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T82" s="5">
+        <f t="shared" ref="T82:T112" si="10">(ABS(E82-F82)/E82)*100</f>
+        <v>1.5909232981184094</v>
+      </c>
+      <c r="U82" s="94"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X82" s="91">
+        <f t="shared" ref="X82:X112" si="11">(ABS(M82-N82)/M82)*100</f>
+        <v>600.56497175141237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" s="92"/>
       <c r="B83" s="12"/>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -4519,7 +7885,7 @@
       <c r="H83" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I83" s="101"/>
+      <c r="I83" s="94"/>
       <c r="J83" s="23"/>
       <c r="K83" s="16" t="s">
         <v>2</v>
@@ -4536,9 +7902,27 @@
       <c r="O83" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="97"/>
+      <c r="Q83" s="92"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T83" s="5">
+        <f t="shared" si="10"/>
+        <v>7.4138901043945635</v>
+      </c>
+      <c r="U83" s="94"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X83" s="91">
+        <f t="shared" si="11"/>
+        <v>3441.2252824858761</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" s="92"/>
       <c r="B84" s="12"/>
       <c r="C84" s="6" t="s">
         <v>4</v>
@@ -4558,7 +7942,7 @@
       <c r="H84" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="101"/>
+      <c r="I84" s="94"/>
       <c r="J84" s="23"/>
       <c r="K84" s="16" t="s">
         <v>4</v>
@@ -4575,9 +7959,27 @@
       <c r="O84" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="97"/>
+      <c r="Q84" s="92"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T84" s="5">
+        <f t="shared" si="10"/>
+        <v>7.829593048696637</v>
+      </c>
+      <c r="U84" s="94"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X84" s="91">
+        <f t="shared" si="11"/>
+        <v>1379.5374293785312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85" s="92"/>
       <c r="B85" s="12"/>
       <c r="C85" s="6" t="s">
         <v>8</v>
@@ -4597,7 +7999,7 @@
       <c r="H85" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I85" s="101"/>
+      <c r="I85" s="94"/>
       <c r="J85" s="23"/>
       <c r="K85" s="16" t="s">
         <v>8</v>
@@ -4614,9 +8016,27 @@
       <c r="O85" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="97"/>
+      <c r="Q85" s="92"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T85" s="5">
+        <f t="shared" si="10"/>
+        <v>4.182034131399635</v>
+      </c>
+      <c r="U85" s="94"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X85" s="91">
+        <f t="shared" si="11"/>
+        <v>1792.7966101694917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86" s="92"/>
       <c r="B86" s="12"/>
       <c r="C86" s="6" t="s">
         <v>5</v>
@@ -4636,7 +8056,7 @@
       <c r="H86" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="101"/>
+      <c r="I86" s="94"/>
       <c r="J86" s="88"/>
       <c r="K86" s="59" t="s">
         <v>5</v>
@@ -4653,9 +8073,27 @@
       <c r="O86" s="86" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="97"/>
+      <c r="Q86" s="92"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T86" s="5">
+        <f t="shared" si="10"/>
+        <v>18.925423516909426</v>
+      </c>
+      <c r="U86" s="94"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="X86" s="91">
+        <f t="shared" si="11"/>
+        <v>35001.518361581926</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" s="92"/>
       <c r="B87" s="14"/>
       <c r="C87" s="8" t="s">
         <v>6</v>
@@ -4675,7 +8113,7 @@
       <c r="H87" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="101"/>
+      <c r="I87" s="94"/>
       <c r="J87" s="25"/>
       <c r="K87" s="19" t="s">
         <v>6</v>
@@ -4692,9 +8130,27 @@
       <c r="O87" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="97"/>
+      <c r="Q87" s="92"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T87" s="5">
+        <f t="shared" si="10"/>
+        <v>17.390760767643933</v>
+      </c>
+      <c r="U87" s="94"/>
+      <c r="V87" s="25"/>
+      <c r="W87" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X87" s="91">
+        <f t="shared" si="11"/>
+        <v>6024.1172316384191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" s="92"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -4702,16 +8158,24 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
       <c r="H88" s="74"/>
-      <c r="I88" s="101"/>
+      <c r="I88" s="94"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
       <c r="O88" s="18"/>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="97"/>
+      <c r="Q88" s="92"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="94"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="91"/>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89" s="92"/>
       <c r="B89" s="10" t="s">
         <v>7</v>
       </c>
@@ -4725,7 +8189,7 @@
       <c r="H89" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I89" s="101"/>
+      <c r="I89" s="94"/>
       <c r="J89" s="21" t="s">
         <v>7</v>
       </c>
@@ -4736,9 +8200,31 @@
       <c r="M89" s="22"/>
       <c r="N89" s="69"/>
       <c r="O89" s="18"/>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="97"/>
+      <c r="Q89" s="92"/>
+      <c r="R89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T89" s="5" t="e">
+        <f t="shared" ref="T89:T113" si="12">(ABS(E89-F89)/E89)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U89" s="94"/>
+      <c r="V89" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W89" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X89" s="91" t="e">
+        <f t="shared" ref="X89:X113" si="13">(ABS(M89-N89)/M89)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" s="92"/>
       <c r="B90" s="12"/>
       <c r="C90" s="6" t="s">
         <v>3</v>
@@ -4750,7 +8236,7 @@
       <c r="H90" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="101"/>
+      <c r="I90" s="94"/>
       <c r="J90" s="23"/>
       <c r="K90" s="16" t="s">
         <v>3</v>
@@ -4759,9 +8245,27 @@
       <c r="M90" s="17"/>
       <c r="N90" s="26"/>
       <c r="O90" s="18"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="97"/>
+      <c r="Q90" s="92"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U90" s="94"/>
+      <c r="V90" s="23"/>
+      <c r="W90" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X90" s="91" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" s="92"/>
       <c r="B91" s="12"/>
       <c r="C91" s="6" t="s">
         <v>2</v>
@@ -4773,7 +8277,7 @@
       <c r="H91" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I91" s="101"/>
+      <c r="I91" s="94"/>
       <c r="J91" s="23"/>
       <c r="K91" s="16" t="s">
         <v>2</v>
@@ -4782,9 +8286,27 @@
       <c r="M91" s="17"/>
       <c r="N91" s="26"/>
       <c r="O91" s="18"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="97"/>
+      <c r="Q91" s="92"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T91" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U91" s="94"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X91" s="91" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" s="92"/>
       <c r="B92" s="12"/>
       <c r="C92" s="6" t="s">
         <v>4</v>
@@ -4796,7 +8318,7 @@
       <c r="H92" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="101"/>
+      <c r="I92" s="94"/>
       <c r="J92" s="23"/>
       <c r="K92" s="16" t="s">
         <v>4</v>
@@ -4805,9 +8327,27 @@
       <c r="M92" s="17"/>
       <c r="N92" s="24"/>
       <c r="O92" s="18"/>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="97"/>
+      <c r="Q92" s="92"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T92" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U92" s="94"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X92" s="91" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93" s="92"/>
       <c r="B93" s="12"/>
       <c r="C93" s="6" t="s">
         <v>8</v>
@@ -4819,7 +8359,7 @@
       <c r="H93" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I93" s="101"/>
+      <c r="I93" s="94"/>
       <c r="J93" s="23"/>
       <c r="K93" s="16" t="s">
         <v>8</v>
@@ -4828,9 +8368,27 @@
       <c r="M93" s="17"/>
       <c r="N93" s="26"/>
       <c r="O93" s="18"/>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="97"/>
+      <c r="Q93" s="92"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T93" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U93" s="94"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X93" s="91" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94" s="92"/>
       <c r="B94" s="12"/>
       <c r="C94" s="6" t="s">
         <v>5</v>
@@ -4842,7 +8400,7 @@
       <c r="H94" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="101"/>
+      <c r="I94" s="94"/>
       <c r="J94" s="23"/>
       <c r="K94" s="16" t="s">
         <v>5</v>
@@ -4851,9 +8409,27 @@
       <c r="M94" s="17"/>
       <c r="N94" s="24"/>
       <c r="O94" s="18"/>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="97"/>
+      <c r="Q94" s="92"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U94" s="94"/>
+      <c r="V94" s="23"/>
+      <c r="W94" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="91" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95" s="92"/>
       <c r="B95" s="14"/>
       <c r="C95" s="8" t="s">
         <v>6</v>
@@ -4865,7 +8441,7 @@
       <c r="H95" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="101"/>
+      <c r="I95" s="94"/>
       <c r="J95" s="25"/>
       <c r="K95" s="19" t="s">
         <v>6</v>
@@ -4874,9 +8450,27 @@
       <c r="M95" s="65"/>
       <c r="N95" s="66"/>
       <c r="O95" s="18"/>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="98"/>
+      <c r="Q95" s="92"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T95" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U95" s="94"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X95" s="91" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96" s="93"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -4884,15 +8478,23 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="74"/>
-      <c r="I96" s="102"/>
+      <c r="I96" s="95"/>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
       <c r="N96" s="19"/>
       <c r="O96" s="20"/>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="Q96" s="93"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="95"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="19"/>
+      <c r="X96" s="91"/>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="30"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
@@ -4908,9 +8510,17 @@
       <c r="M97" s="46"/>
       <c r="N97" s="46"/>
       <c r="O97" s="47"/>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="99" t="s">
+      <c r="Q97" s="30"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="31"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
+      <c r="X97" s="91"/>
+    </row>
+    <row r="98" spans="1:24">
+      <c r="A98" s="96" t="s">
         <v>18</v>
       </c>
       <c r="B98" s="33" t="s">
@@ -4934,7 +8544,7 @@
       <c r="H98" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="103" t="s">
+      <c r="I98" s="98" t="s">
         <v>20</v>
       </c>
       <c r="J98" s="48" t="s">
@@ -4955,9 +8565,35 @@
       <c r="O98" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="99"/>
+      <c r="Q98" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="R98" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S98" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T98" s="5">
+        <f t="shared" ref="T98:T113" si="14">(ABS(E98-F98)/E98)*100</f>
+        <v>1.8622384673556824</v>
+      </c>
+      <c r="U98" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="V98" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="W98" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X98" s="91">
+        <f t="shared" ref="X98:X113" si="15">(ABS(M98-N98)/M98)*100</f>
+        <v>2475.5641521598968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
+      <c r="A99" s="96"/>
       <c r="B99" s="36"/>
       <c r="C99" s="37" t="s">
         <v>3</v>
@@ -4977,7 +8613,7 @@
       <c r="H99" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="103"/>
+      <c r="I99" s="98"/>
       <c r="J99" s="51"/>
       <c r="K99" s="52" t="s">
         <v>3</v>
@@ -4994,9 +8630,27 @@
       <c r="O99" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="99"/>
+      <c r="Q99" s="96"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T99" s="5">
+        <f t="shared" si="14"/>
+        <v>1.8433324930678094</v>
+      </c>
+      <c r="U99" s="98"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="X99" s="91">
+        <f t="shared" si="15"/>
+        <v>843.51039031890093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
+      <c r="A100" s="96"/>
       <c r="B100" s="36"/>
       <c r="C100" s="37" t="s">
         <v>2</v>
@@ -5016,7 +8670,7 @@
       <c r="H100" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="103"/>
+      <c r="I100" s="98"/>
       <c r="J100" s="51"/>
       <c r="K100" s="52" t="s">
         <v>2</v>
@@ -5033,9 +8687,27 @@
       <c r="O100" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="99"/>
+      <c r="Q100" s="96"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T100" s="5">
+        <f t="shared" si="14"/>
+        <v>9.1788505167633012</v>
+      </c>
+      <c r="U100" s="98"/>
+      <c r="V100" s="51"/>
+      <c r="W100" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="X100" s="91">
+        <f t="shared" si="15"/>
+        <v>9584.4269205971323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
+      <c r="A101" s="96"/>
       <c r="B101" s="36"/>
       <c r="C101" s="37" t="s">
         <v>4</v>
@@ -5055,7 +8727,7 @@
       <c r="H101" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I101" s="103"/>
+      <c r="I101" s="98"/>
       <c r="J101" s="51"/>
       <c r="K101" s="52" t="s">
         <v>4</v>
@@ -5072,9 +8744,27 @@
       <c r="O101" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="99"/>
+      <c r="Q101" s="96"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="5">
+        <f t="shared" si="14"/>
+        <v>10.004411394000501</v>
+      </c>
+      <c r="U101" s="98"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="91">
+        <f t="shared" si="15"/>
+        <v>1272.0428507662552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
+      <c r="A102" s="96"/>
       <c r="B102" s="36"/>
       <c r="C102" s="37" t="s">
         <v>8</v>
@@ -5094,7 +8784,7 @@
       <c r="H102" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="103"/>
+      <c r="I102" s="98"/>
       <c r="J102" s="51"/>
       <c r="K102" s="52" t="s">
         <v>8</v>
@@ -5111,9 +8801,27 @@
       <c r="O102" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="99"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="5">
+        <f t="shared" si="14"/>
+        <v>5.1392740105873465</v>
+      </c>
+      <c r="U102" s="98"/>
+      <c r="V102" s="51"/>
+      <c r="W102" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="91">
+        <f t="shared" si="15"/>
+        <v>4768.9976689976693</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
+      <c r="A103" s="96"/>
       <c r="B103" s="36"/>
       <c r="C103" s="37" t="s">
         <v>5</v>
@@ -5133,7 +8841,7 @@
       <c r="H103" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="103"/>
+      <c r="I103" s="98"/>
       <c r="J103" s="87"/>
       <c r="K103" s="60" t="s">
         <v>5</v>
@@ -5150,9 +8858,27 @@
       <c r="O103" s="81" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="99"/>
+      <c r="Q103" s="96"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T103" s="5">
+        <f t="shared" si="14"/>
+        <v>23.329972271237718</v>
+      </c>
+      <c r="U103" s="98"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="X103" s="91">
+        <f t="shared" si="15"/>
+        <v>98528.676288250761</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
+      <c r="A104" s="96"/>
       <c r="B104" s="39"/>
       <c r="C104" s="40" t="s">
         <v>6</v>
@@ -5172,7 +8898,7 @@
       <c r="H104" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I104" s="103"/>
+      <c r="I104" s="98"/>
       <c r="J104" s="56"/>
       <c r="K104" s="57" t="s">
         <v>6</v>
@@ -5189,9 +8915,27 @@
       <c r="O104" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="99"/>
+      <c r="Q104" s="96"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T104" s="5">
+        <f t="shared" si="14"/>
+        <v>27.454625661709109</v>
+      </c>
+      <c r="U104" s="98"/>
+      <c r="V104" s="56"/>
+      <c r="W104" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="X104" s="91">
+        <f t="shared" si="15"/>
+        <v>16709.209938997177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
+      <c r="A105" s="96"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
@@ -5199,16 +8943,24 @@
       <c r="F105" s="37"/>
       <c r="G105" s="35"/>
       <c r="H105" s="74"/>
-      <c r="I105" s="103"/>
+      <c r="I105" s="98"/>
       <c r="J105" s="52"/>
       <c r="K105" s="52"/>
       <c r="L105" s="52"/>
       <c r="M105" s="52"/>
       <c r="N105" s="52"/>
       <c r="O105" s="50"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="99"/>
+      <c r="Q105" s="96"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="98"/>
+      <c r="V105" s="52"/>
+      <c r="W105" s="52"/>
+      <c r="X105" s="91"/>
+    </row>
+    <row r="106" spans="1:24">
+      <c r="A106" s="96"/>
       <c r="B106" s="33" t="s">
         <v>7</v>
       </c>
@@ -5222,7 +8974,7 @@
       <c r="H106" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I106" s="103"/>
+      <c r="I106" s="98"/>
       <c r="J106" s="48" t="s">
         <v>7</v>
       </c>
@@ -5233,9 +8985,31 @@
       <c r="M106" s="49"/>
       <c r="N106" s="70"/>
       <c r="O106" s="50"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="99"/>
+      <c r="Q106" s="96"/>
+      <c r="R106" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S106" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T106" s="5" t="e">
+        <f t="shared" ref="T106:T113" si="16">(ABS(E106-F106)/E106)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U106" s="98"/>
+      <c r="V106" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="W106" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X106" s="91" t="e">
+        <f t="shared" ref="X106:X113" si="17">(ABS(M106-N106)/M106)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
+      <c r="A107" s="96"/>
       <c r="B107" s="36"/>
       <c r="C107" s="37" t="s">
         <v>3</v>
@@ -5247,7 +9021,7 @@
       <c r="H107" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I107" s="103"/>
+      <c r="I107" s="98"/>
       <c r="J107" s="51"/>
       <c r="K107" s="52" t="s">
         <v>3</v>
@@ -5256,9 +9030,27 @@
       <c r="M107" s="53"/>
       <c r="N107" s="54"/>
       <c r="O107" s="50"/>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="99"/>
+      <c r="Q107" s="96"/>
+      <c r="R107" s="36"/>
+      <c r="S107" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T107" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U107" s="98"/>
+      <c r="V107" s="51"/>
+      <c r="W107" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="X107" s="91" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
+      <c r="A108" s="96"/>
       <c r="B108" s="36"/>
       <c r="C108" s="37" t="s">
         <v>2</v>
@@ -5270,7 +9062,7 @@
       <c r="H108" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I108" s="103"/>
+      <c r="I108" s="98"/>
       <c r="J108" s="51"/>
       <c r="K108" s="52" t="s">
         <v>2</v>
@@ -5279,9 +9071,27 @@
       <c r="M108" s="53"/>
       <c r="N108" s="54"/>
       <c r="O108" s="50"/>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="99"/>
+      <c r="Q108" s="96"/>
+      <c r="R108" s="36"/>
+      <c r="S108" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="T108" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U108" s="98"/>
+      <c r="V108" s="51"/>
+      <c r="W108" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="X108" s="91" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
+      <c r="A109" s="96"/>
       <c r="B109" s="36"/>
       <c r="C109" s="37" t="s">
         <v>4</v>
@@ -5293,7 +9103,7 @@
       <c r="H109" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I109" s="103"/>
+      <c r="I109" s="98"/>
       <c r="J109" s="51"/>
       <c r="K109" s="52" t="s">
         <v>4</v>
@@ -5302,9 +9112,27 @@
       <c r="M109" s="53"/>
       <c r="N109" s="54"/>
       <c r="O109" s="50"/>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="99"/>
+      <c r="Q109" s="96"/>
+      <c r="R109" s="36"/>
+      <c r="S109" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T109" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U109" s="98"/>
+      <c r="V109" s="51"/>
+      <c r="W109" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X109" s="91" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
+      <c r="A110" s="96"/>
       <c r="B110" s="36"/>
       <c r="C110" s="37" t="s">
         <v>8</v>
@@ -5316,7 +9144,7 @@
       <c r="H110" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I110" s="103"/>
+      <c r="I110" s="98"/>
       <c r="J110" s="51"/>
       <c r="K110" s="52" t="s">
         <v>8</v>
@@ -5325,9 +9153,27 @@
       <c r="M110" s="53"/>
       <c r="N110" s="54"/>
       <c r="O110" s="50"/>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="99"/>
+      <c r="Q110" s="96"/>
+      <c r="R110" s="36"/>
+      <c r="S110" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T110" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U110" s="98"/>
+      <c r="V110" s="51"/>
+      <c r="W110" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="X110" s="91" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
+      <c r="A111" s="96"/>
       <c r="B111" s="36"/>
       <c r="C111" s="37" t="s">
         <v>5</v>
@@ -5339,7 +9185,7 @@
       <c r="H111" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="103"/>
+      <c r="I111" s="98"/>
       <c r="J111" s="51"/>
       <c r="K111" s="52" t="s">
         <v>5</v>
@@ -5348,9 +9194,27 @@
       <c r="M111" s="53"/>
       <c r="N111" s="55"/>
       <c r="O111" s="50"/>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="99"/>
+      <c r="Q111" s="96"/>
+      <c r="R111" s="36"/>
+      <c r="S111" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T111" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U111" s="98"/>
+      <c r="V111" s="51"/>
+      <c r="W111" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="X111" s="91" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="A112" s="96"/>
       <c r="B112" s="39"/>
       <c r="C112" s="40" t="s">
         <v>6</v>
@@ -5362,7 +9226,7 @@
       <c r="H112" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="103"/>
+      <c r="I112" s="98"/>
       <c r="J112" s="56"/>
       <c r="K112" s="57" t="s">
         <v>6</v>
@@ -5371,9 +9235,27 @@
       <c r="M112" s="67"/>
       <c r="N112" s="68"/>
       <c r="O112" s="50"/>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="100"/>
+      <c r="Q112" s="96"/>
+      <c r="R112" s="39"/>
+      <c r="S112" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T112" s="5" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U112" s="98"/>
+      <c r="V112" s="56"/>
+      <c r="W112" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="X112" s="91" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
+      <c r="A113" s="97"/>
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
       <c r="D113" s="40"/>
@@ -5381,21 +9263,61 @@
       <c r="F113" s="40"/>
       <c r="G113" s="41"/>
       <c r="H113" s="75"/>
-      <c r="I113" s="104"/>
+      <c r="I113" s="99"/>
       <c r="J113" s="57"/>
       <c r="K113" s="57"/>
       <c r="L113" s="57"/>
       <c r="M113" s="57"/>
       <c r="N113" s="57"/>
       <c r="O113" s="58"/>
+      <c r="Q113" s="97"/>
+      <c r="R113" s="40"/>
+      <c r="S113" s="40"/>
+      <c r="T113" s="40"/>
+      <c r="U113" s="99"/>
+      <c r="V113" s="57"/>
+      <c r="W113" s="57"/>
+      <c r="X113" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="Q5:Q20"/>
-    <mergeCell ref="U5:U20"/>
-    <mergeCell ref="Q22:Q37"/>
-    <mergeCell ref="U22:U37"/>
-    <mergeCell ref="A1:O1"/>
+  <mergeCells count="69">
+    <mergeCell ref="Q81:Q96"/>
+    <mergeCell ref="U81:U96"/>
+    <mergeCell ref="Q98:Q113"/>
+    <mergeCell ref="U98:U113"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q43:Q58"/>
+    <mergeCell ref="U43:U58"/>
+    <mergeCell ref="Q60:Q75"/>
+    <mergeCell ref="U60:U75"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="I98:I113"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="I78:I79"/>
     <mergeCell ref="A39:O39"/>
     <mergeCell ref="A77:O77"/>
     <mergeCell ref="O78:O79"/>
@@ -5411,29 +9333,12 @@
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="A43:A58"/>
     <mergeCell ref="I43:I58"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="I98:I113"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
     <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="Q5:Q20"/>
+    <mergeCell ref="U5:U20"/>
+    <mergeCell ref="Q22:Q37"/>
+    <mergeCell ref="U22:U37"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A22:A37"/>
     <mergeCell ref="I5:I20"/>
@@ -5445,39 +9350,8 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/Comparador Tabla de NDout con graficos.xlsx
+++ b/Documentation/Comparador Tabla de NDout con graficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="345" windowWidth="8910" windowHeight="7080"/>
+    <workbookView xWindow="5730" yWindow="345" windowWidth="8910" windowHeight="7080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EXP-1005" sheetId="17" r:id="rId1"/>
@@ -3964,10 +3964,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -3978,7 +3979,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -3989,7 +3991,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4000,7 +4003,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4011,7 +4015,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4022,7 +4027,8 @@
     <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4475,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
@@ -4677,7 +4683,7 @@
       <c r="W5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="87">
+      <c r="X5" s="22">
         <f>(ABS(M5-N5)/M5)*100</f>
         <v>1457.3688711516534</v>
       </c>
@@ -4734,7 +4740,7 @@
       <c r="W6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="87">
+      <c r="X6" s="22">
         <f t="shared" ref="X6:X36" si="1">(ABS(M6-N6)/M6)*100</f>
         <v>801.41106043329523</v>
       </c>
@@ -4791,7 +4797,7 @@
       <c r="W7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="87">
+      <c r="X7" s="22">
         <f t="shared" si="1"/>
         <v>5567.930444697834</v>
       </c>
@@ -4848,7 +4854,7 @@
       <c r="W8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="87">
+      <c r="X8" s="22">
         <f t="shared" si="1"/>
         <v>1355.3734321550744</v>
       </c>
@@ -4905,7 +4911,7 @@
       <c r="W9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="87">
+      <c r="X9" s="22">
         <f t="shared" si="1"/>
         <v>2534.6493728620294</v>
       </c>
@@ -4962,7 +4968,7 @@
       <c r="W10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="87">
+      <c r="X10" s="22">
         <f t="shared" si="1"/>
         <v>56574.743443557585</v>
       </c>
@@ -5019,7 +5025,7 @@
       <c r="W11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X11" s="87">
+      <c r="X11" s="22">
         <f t="shared" si="1"/>
         <v>9634.5014245014245</v>
       </c>
@@ -10090,6 +10096,6 @@
     <mergeCell ref="A60:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Comparador Tabla de NDout con graficos.xlsx
+++ b/Documentation/Comparador Tabla de NDout con graficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="345" windowWidth="8910" windowHeight="7080" activeTab="6"/>
+    <workbookView xWindow="5730" yWindow="345" windowWidth="8910" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EXP-1005" sheetId="17" r:id="rId1"/>
@@ -435,6 +435,20 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -447,35 +461,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,8 +476,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -992,11 +991,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155372928"/>
-        <c:axId val="159634560"/>
+        <c:axId val="67430272"/>
+        <c:axId val="89273088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155372928"/>
+        <c:axId val="67430272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,16 +1022,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159634560"/>
+        <c:crossAx val="89273088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159634560"/>
+        <c:axId val="89273088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1061,12 +1059,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155372928"/>
+        <c:crossAx val="67430272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1076,7 +1073,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1114,7 +1110,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1573,11 +1568,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="131086208"/>
-        <c:axId val="131088384"/>
+        <c:axId val="67419520"/>
+        <c:axId val="114386816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131086208"/>
+        <c:axId val="67419520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,16 +1594,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131088384"/>
+        <c:crossAx val="114386816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131088384"/>
+        <c:axId val="114386816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1637,12 +1631,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131086208"/>
+        <c:crossAx val="67419520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1652,7 +1645,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2010,25 +2002,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100.89333910034601</c:v>
+                  <c:v>993.3391003460207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.277056901191855</c:v>
+                  <c:v>622.94309880815081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.61012110726644</c:v>
+                  <c:v>3710.1211072664364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.633881199538649</c:v>
+                  <c:v>1266.1188004613612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.79718377547098</c:v>
+                  <c:v>1897.1837754709729</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.795463283352561</c:v>
+                  <c:v>38104.536716647446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.42961361014993</c:v>
+                  <c:v>6529.6136101499415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,11 +2141,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146130048"/>
-        <c:axId val="146131968"/>
+        <c:axId val="126792448"/>
+        <c:axId val="126794752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146130048"/>
+        <c:axId val="126792448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,12 +2171,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146131968"/>
+        <c:crossAx val="126794752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146131968"/>
+        <c:axId val="126794752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2213,7 +2205,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146130048"/>
+        <c:crossAx val="126792448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -2261,7 +2253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2581,25 +2572,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100.91806036139947</c:v>
+                  <c:v>1018.0603613994616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.245357554786622</c:v>
+                  <c:v>654.64244521337957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.75655517108804</c:v>
+                  <c:v>3856.5551710880436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.502364475201858</c:v>
+                  <c:v>1397.6355247981546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.28336216839678</c:v>
+                  <c:v>2383.3621683967704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.681084198385236</c:v>
+                  <c:v>38218.915801614763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.40960207612457</c:v>
+                  <c:v>6509.6020761245672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,11 +2711,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="167525760"/>
-        <c:axId val="154072192"/>
+        <c:axId val="133035904"/>
+        <c:axId val="133042560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167525760"/>
+        <c:axId val="133035904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2746,16 +2737,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154072192"/>
+        <c:crossAx val="133042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154072192"/>
+        <c:axId val="133042560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2779,12 +2769,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167525760"/>
+        <c:crossAx val="133035904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -2794,7 +2783,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2832,7 +2820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3291,11 +3278,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="135180672"/>
-        <c:axId val="135182592"/>
+        <c:axId val="133126784"/>
+        <c:axId val="133141632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135180672"/>
+        <c:axId val="133126784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,16 +3304,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135182592"/>
+        <c:crossAx val="133141632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135182592"/>
+        <c:axId val="133141632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3350,12 +3336,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135180672"/>
+        <c:crossAx val="133126784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -3365,7 +3350,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3405,7 +3389,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3879,11 +3862,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="159775360"/>
-        <c:axId val="160020352"/>
+        <c:axId val="133398912"/>
+        <c:axId val="133401216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159775360"/>
+        <c:axId val="133398912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,16 +3888,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160020352"/>
+        <c:crossAx val="133401216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160020352"/>
+        <c:axId val="133401216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3938,12 +3920,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159775360"/>
+        <c:crossAx val="133398912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -3953,7 +3934,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3988,7 +3968,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4089,7 +4069,7 @@
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
+    <xdr:pos x="-24848" y="-24848"/>
     <xdr:ext cx="8680739" cy="6299489"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4481,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5:X11"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
@@ -4507,85 +4487,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="105" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="101" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="99"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="69"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="104"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="102"/>
       <c r="T3" s="2" t="s">
         <v>32</v>
       </c>
@@ -4616,7 +4596,7 @@
       <c r="X4" s="42"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -4640,7 +4620,7 @@
       <c r="H5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="96" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
@@ -4661,7 +4641,7 @@
       <c r="O5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="88" t="s">
+      <c r="Q5" s="94" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="10" t="s">
@@ -4674,7 +4654,7 @@
         <f>(ABS(E5-F5)/E5)*100</f>
         <v>1.4673743365594665</v>
       </c>
-      <c r="U5" s="90" t="s">
+      <c r="U5" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V5" s="21" t="s">
@@ -4689,7 +4669,7 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
         <v>3</v>
@@ -4709,7 +4689,7 @@
       <c r="H6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="90"/>
+      <c r="I6" s="96"/>
       <c r="J6" s="23"/>
       <c r="K6" s="16" t="s">
         <v>3</v>
@@ -4726,7 +4706,7 @@
       <c r="O6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="88"/>
+      <c r="Q6" s="94"/>
       <c r="R6" s="12"/>
       <c r="S6" s="6" t="s">
         <v>3</v>
@@ -4735,7 +4715,7 @@
         <f t="shared" ref="T6:T36" si="0">(ABS(E6-F6)/E6)*100</f>
         <v>1.517327505463627</v>
       </c>
-      <c r="U6" s="90"/>
+      <c r="U6" s="96"/>
       <c r="V6" s="23"/>
       <c r="W6" s="16" t="s">
         <v>3</v>
@@ -4746,7 +4726,7 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="88"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -4766,7 +4746,7 @@
       <c r="H7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="23"/>
       <c r="K7" s="16" t="s">
         <v>2</v>
@@ -4783,7 +4763,7 @@
       <c r="O7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="88"/>
+      <c r="Q7" s="94"/>
       <c r="R7" s="12"/>
       <c r="S7" s="6" t="s">
         <v>2</v>
@@ -4792,7 +4772,7 @@
         <f t="shared" si="0"/>
         <v>7.1027162035591642</v>
       </c>
-      <c r="U7" s="90"/>
+      <c r="U7" s="96"/>
       <c r="V7" s="23"/>
       <c r="W7" s="16" t="s">
         <v>2</v>
@@ -4803,7 +4783,7 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="88"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -4823,7 +4803,7 @@
       <c r="H8" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="90"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="23"/>
       <c r="K8" s="16" t="s">
         <v>4</v>
@@ -4840,7 +4820,7 @@
       <c r="O8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="88"/>
+      <c r="Q8" s="94"/>
       <c r="R8" s="12"/>
       <c r="S8" s="6" t="s">
         <v>4</v>
@@ -4849,7 +4829,7 @@
         <f t="shared" si="0"/>
         <v>7.5335622853574868</v>
       </c>
-      <c r="U8" s="90"/>
+      <c r="U8" s="96"/>
       <c r="V8" s="23"/>
       <c r="W8" s="16" t="s">
         <v>4</v>
@@ -4860,7 +4840,7 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="88"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -4880,7 +4860,7 @@
       <c r="H9" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="23"/>
       <c r="K9" s="16" t="s">
         <v>8</v>
@@ -4897,7 +4877,7 @@
       <c r="O9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="88"/>
+      <c r="Q9" s="94"/>
       <c r="R9" s="12"/>
       <c r="S9" s="6" t="s">
         <v>8</v>
@@ -4906,7 +4886,7 @@
         <f t="shared" si="0"/>
         <v>3.6153605994380174</v>
       </c>
-      <c r="U9" s="90"/>
+      <c r="U9" s="96"/>
       <c r="V9" s="23"/>
       <c r="W9" s="16" t="s">
         <v>8</v>
@@ -4917,7 +4897,7 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="88"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="12"/>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -4937,7 +4917,7 @@
       <c r="H10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="23"/>
       <c r="K10" s="57" t="s">
         <v>5</v>
@@ -4954,7 +4934,7 @@
       <c r="O10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="88"/>
+      <c r="Q10" s="94"/>
       <c r="R10" s="12"/>
       <c r="S10" s="6" t="s">
         <v>5</v>
@@ -4963,7 +4943,7 @@
         <f t="shared" si="0"/>
         <v>17.321261317514836</v>
       </c>
-      <c r="U10" s="90"/>
+      <c r="U10" s="96"/>
       <c r="V10" s="23"/>
       <c r="W10" s="57" t="s">
         <v>5</v>
@@ -4974,7 +4954,7 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="88"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -4994,7 +4974,7 @@
       <c r="H11" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="90"/>
+      <c r="I11" s="96"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
         <v>6</v>
@@ -5011,7 +4991,7 @@
       <c r="O11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="88"/>
+      <c r="Q11" s="94"/>
       <c r="R11" s="14"/>
       <c r="S11" s="8" t="s">
         <v>6</v>
@@ -5020,7 +5000,7 @@
         <f t="shared" si="0"/>
         <v>16.394005619731491</v>
       </c>
-      <c r="U11" s="90"/>
+      <c r="U11" s="96"/>
       <c r="V11" s="24"/>
       <c r="W11" s="19" t="s">
         <v>6</v>
@@ -5031,7 +5011,7 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="88"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5039,24 +5019,24 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="70"/>
-      <c r="I12" s="90"/>
+      <c r="I12" s="96"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="18"/>
-      <c r="Q12" s="88"/>
+      <c r="Q12" s="94"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="90"/>
+      <c r="U12" s="96"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="87"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="88"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
@@ -5078,7 +5058,7 @@
       <c r="H13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="21" t="s">
         <v>7</v>
       </c>
@@ -5097,7 +5077,7 @@
       <c r="O13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="88"/>
+      <c r="Q13" s="94"/>
       <c r="R13" s="10" t="s">
         <v>7</v>
       </c>
@@ -5108,7 +5088,7 @@
         <f t="shared" si="0"/>
         <v>1.4985950671245722</v>
       </c>
-      <c r="U13" s="90"/>
+      <c r="U13" s="96"/>
       <c r="V13" s="21" t="s">
         <v>7</v>
       </c>
@@ -5121,7 +5101,7 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="88"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>3</v>
@@ -5141,7 +5121,7 @@
       <c r="H14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="90"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="23"/>
       <c r="K14" s="16" t="s">
         <v>3</v>
@@ -5158,7 +5138,7 @@
       <c r="O14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="88"/>
+      <c r="Q14" s="94"/>
       <c r="R14" s="12"/>
       <c r="S14" s="6" t="s">
         <v>3</v>
@@ -5167,7 +5147,7 @@
         <f t="shared" si="0"/>
         <v>1.5079612862941065</v>
       </c>
-      <c r="U14" s="90"/>
+      <c r="U14" s="96"/>
       <c r="V14" s="23"/>
       <c r="W14" s="16" t="s">
         <v>3</v>
@@ -5178,7 +5158,7 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="88"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
         <v>2</v>
@@ -5198,7 +5178,7 @@
       <c r="H15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="90"/>
+      <c r="I15" s="96"/>
       <c r="J15" s="23"/>
       <c r="K15" s="16" t="s">
         <v>2</v>
@@ -5215,7 +5195,7 @@
       <c r="O15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="88"/>
+      <c r="Q15" s="94"/>
       <c r="R15" s="12"/>
       <c r="S15" s="6" t="s">
         <v>2</v>
@@ -5224,7 +5204,7 @@
         <f t="shared" si="0"/>
         <v>7.1776459569153852</v>
       </c>
-      <c r="U15" s="90"/>
+      <c r="U15" s="96"/>
       <c r="V15" s="23"/>
       <c r="W15" s="16" t="s">
         <v>2</v>
@@ -5235,7 +5215,7 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="88"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -5255,7 +5235,7 @@
       <c r="H16" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="23"/>
       <c r="K16" s="16" t="s">
         <v>4</v>
@@ -5272,7 +5252,7 @@
       <c r="O16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="88"/>
+      <c r="Q16" s="94"/>
       <c r="R16" s="12"/>
       <c r="S16" s="6" t="s">
         <v>4</v>
@@ -5281,7 +5261,7 @@
         <f t="shared" si="0"/>
         <v>7.7146425226350335</v>
       </c>
-      <c r="U16" s="90"/>
+      <c r="U16" s="96"/>
       <c r="V16" s="23"/>
       <c r="W16" s="16" t="s">
         <v>4</v>
@@ -5292,7 +5272,7 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="88"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -5312,7 +5292,7 @@
       <c r="H17" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="90"/>
+      <c r="I17" s="96"/>
       <c r="J17" s="23"/>
       <c r="K17" s="16" t="s">
         <v>8</v>
@@ -5329,7 +5309,7 @@
       <c r="O17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="88"/>
+      <c r="Q17" s="94"/>
       <c r="R17" s="12"/>
       <c r="S17" s="6" t="s">
         <v>8</v>
@@ -5338,7 +5318,7 @@
         <f t="shared" si="0"/>
         <v>4.6831095847642805</v>
       </c>
-      <c r="U17" s="90"/>
+      <c r="U17" s="96"/>
       <c r="V17" s="23"/>
       <c r="W17" s="16" t="s">
         <v>8</v>
@@ -5349,7 +5329,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="88"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
         <v>5</v>
@@ -5369,7 +5349,7 @@
       <c r="H18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="90"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="23"/>
       <c r="K18" s="57" t="s">
         <v>5</v>
@@ -5386,7 +5366,7 @@
       <c r="O18" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="88"/>
+      <c r="Q18" s="94"/>
       <c r="R18" s="12"/>
       <c r="S18" s="6" t="s">
         <v>5</v>
@@ -5395,7 +5375,7 @@
         <f t="shared" si="0"/>
         <v>15.472994068061194</v>
       </c>
-      <c r="U18" s="90"/>
+      <c r="U18" s="96"/>
       <c r="V18" s="23"/>
       <c r="W18" s="57" t="s">
         <v>5</v>
@@ -5406,7 +5386,7 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="88"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
@@ -5426,7 +5406,7 @@
       <c r="H19" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="90"/>
+      <c r="I19" s="96"/>
       <c r="J19" s="24"/>
       <c r="K19" s="19" t="s">
         <v>6</v>
@@ -5443,7 +5423,7 @@
       <c r="O19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="88"/>
+      <c r="Q19" s="94"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8" t="s">
         <v>6</v>
@@ -5452,7 +5432,7 @@
         <f t="shared" si="0"/>
         <v>16.781142678738671</v>
       </c>
-      <c r="U19" s="90"/>
+      <c r="U19" s="96"/>
       <c r="V19" s="24"/>
       <c r="W19" s="19" t="s">
         <v>6</v>
@@ -5463,7 +5443,7 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="89"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -5471,18 +5451,18 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="91"/>
+      <c r="I20" s="97"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="20"/>
-      <c r="Q20" s="89"/>
+      <c r="Q20" s="95"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="91"/>
+      <c r="U20" s="97"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="87"/>
@@ -5513,7 +5493,7 @@
       <c r="X21" s="87"/>
     </row>
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -5537,7 +5517,7 @@
       <c r="H22" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="94" t="s">
+      <c r="I22" s="98" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="47" t="s">
@@ -5558,7 +5538,7 @@
       <c r="O22" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="92" t="s">
+      <c r="Q22" s="90" t="s">
         <v>18</v>
       </c>
       <c r="R22" s="32" t="s">
@@ -5571,7 +5551,7 @@
         <f t="shared" si="0"/>
         <v>1.7728374846490473</v>
       </c>
-      <c r="U22" s="94" t="s">
+      <c r="U22" s="98" t="s">
         <v>20</v>
       </c>
       <c r="V22" s="47" t="s">
@@ -5586,7 +5566,7 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="92"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36" t="s">
         <v>3</v>
@@ -5606,7 +5586,7 @@
       <c r="H23" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="94"/>
+      <c r="I23" s="98"/>
       <c r="J23" s="50"/>
       <c r="K23" s="51" t="s">
         <v>3</v>
@@ -5623,7 +5603,7 @@
       <c r="O23" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" s="92"/>
+      <c r="Q23" s="90"/>
       <c r="R23" s="35"/>
       <c r="S23" s="36" t="s">
         <v>3</v>
@@ -5632,7 +5612,7 @@
         <f t="shared" si="0"/>
         <v>1.8389646377176758</v>
       </c>
-      <c r="U23" s="94"/>
+      <c r="U23" s="98"/>
       <c r="V23" s="50"/>
       <c r="W23" s="51" t="s">
         <v>3</v>
@@ -5643,7 +5623,7 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="92"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36" t="s">
         <v>2</v>
@@ -5663,7 +5643,7 @@
       <c r="H24" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="98"/>
       <c r="J24" s="50"/>
       <c r="K24" s="51" t="s">
         <v>2</v>
@@ -5680,7 +5660,7 @@
       <c r="O24" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="92"/>
+      <c r="Q24" s="90"/>
       <c r="R24" s="35"/>
       <c r="S24" s="36" t="s">
         <v>2</v>
@@ -5689,7 +5669,7 @@
         <f t="shared" si="0"/>
         <v>8.9649526088736327</v>
       </c>
-      <c r="U24" s="94"/>
+      <c r="U24" s="98"/>
       <c r="V24" s="50"/>
       <c r="W24" s="51" t="s">
         <v>2</v>
@@ -5700,7 +5680,7 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="92"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36" t="s">
         <v>4</v>
@@ -5720,7 +5700,7 @@
       <c r="H25" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="94"/>
+      <c r="I25" s="98"/>
       <c r="J25" s="50"/>
       <c r="K25" s="51" t="s">
         <v>4</v>
@@ -5737,7 +5717,7 @@
       <c r="O25" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="92"/>
+      <c r="Q25" s="90"/>
       <c r="R25" s="35"/>
       <c r="S25" s="36" t="s">
         <v>4</v>
@@ -5746,7 +5726,7 @@
         <f t="shared" si="0"/>
         <v>9.8057121264603051</v>
       </c>
-      <c r="U25" s="94"/>
+      <c r="U25" s="98"/>
       <c r="V25" s="50"/>
       <c r="W25" s="51" t="s">
         <v>4</v>
@@ -5757,7 +5737,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="92"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36" t="s">
         <v>8</v>
@@ -5777,7 +5757,7 @@
       <c r="H26" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="94"/>
+      <c r="I26" s="98"/>
       <c r="J26" s="50"/>
       <c r="K26" s="51" t="s">
         <v>8</v>
@@ -5794,7 +5774,7 @@
       <c r="O26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="92"/>
+      <c r="Q26" s="90"/>
       <c r="R26" s="35"/>
       <c r="S26" s="36" t="s">
         <v>8</v>
@@ -5803,7 +5783,7 @@
         <f t="shared" si="0"/>
         <v>4.5312844412255542</v>
       </c>
-      <c r="U26" s="94"/>
+      <c r="U26" s="98"/>
       <c r="V26" s="50"/>
       <c r="W26" s="51" t="s">
         <v>8</v>
@@ -5814,7 +5794,7 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="92"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36" t="s">
         <v>5</v>
@@ -5834,7 +5814,7 @@
       <c r="H27" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="94"/>
+      <c r="I27" s="98"/>
       <c r="J27" s="50"/>
       <c r="K27" s="58" t="s">
         <v>5</v>
@@ -5851,7 +5831,7 @@
       <c r="O27" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="Q27" s="92"/>
+      <c r="Q27" s="90"/>
       <c r="R27" s="35"/>
       <c r="S27" s="36" t="s">
         <v>5</v>
@@ -5860,7 +5840,7 @@
         <f t="shared" si="0"/>
         <v>22.338382088988258</v>
       </c>
-      <c r="U27" s="94"/>
+      <c r="U27" s="98"/>
       <c r="V27" s="50"/>
       <c r="W27" s="58" t="s">
         <v>5</v>
@@ -5871,7 +5851,7 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="92"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39" t="s">
         <v>6</v>
@@ -5891,7 +5871,7 @@
       <c r="H28" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="98"/>
       <c r="J28" s="54"/>
       <c r="K28" s="55" t="s">
         <v>6</v>
@@ -5908,7 +5888,7 @@
       <c r="O28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="92"/>
+      <c r="Q28" s="90"/>
       <c r="R28" s="38"/>
       <c r="S28" s="39" t="s">
         <v>6</v>
@@ -5917,7 +5897,7 @@
         <f t="shared" si="0"/>
         <v>25.657335390622539</v>
       </c>
-      <c r="U28" s="94"/>
+      <c r="U28" s="98"/>
       <c r="V28" s="54"/>
       <c r="W28" s="55" t="s">
         <v>6</v>
@@ -5928,7 +5908,7 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="92"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -5936,24 +5916,24 @@
       <c r="F29" s="36"/>
       <c r="G29" s="34"/>
       <c r="H29" s="70"/>
-      <c r="I29" s="94"/>
+      <c r="I29" s="98"/>
       <c r="J29" s="51"/>
       <c r="K29" s="51"/>
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
       <c r="O29" s="49"/>
-      <c r="Q29" s="92"/>
+      <c r="Q29" s="90"/>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="94"/>
+      <c r="U29" s="98"/>
       <c r="V29" s="51"/>
       <c r="W29" s="51"/>
       <c r="X29" s="87"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="92"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="32" t="s">
         <v>7</v>
       </c>
@@ -5975,7 +5955,7 @@
       <c r="H30" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="98"/>
       <c r="J30" s="47" t="s">
         <v>7</v>
       </c>
@@ -5994,7 +5974,7 @@
       <c r="O30" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q30" s="92"/>
+      <c r="Q30" s="90"/>
       <c r="R30" s="32" t="s">
         <v>7</v>
       </c>
@@ -6005,7 +5985,7 @@
         <f t="shared" si="0"/>
         <v>1.8137733413105734</v>
       </c>
-      <c r="U30" s="94"/>
+      <c r="U30" s="98"/>
       <c r="V30" s="47" t="s">
         <v>7</v>
       </c>
@@ -6018,7 +5998,7 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="92"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36" t="s">
         <v>3</v>
@@ -6038,7 +6018,7 @@
       <c r="H31" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="94"/>
+      <c r="I31" s="98"/>
       <c r="J31" s="50"/>
       <c r="K31" s="51" t="s">
         <v>3</v>
@@ -6055,7 +6035,7 @@
       <c r="O31" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="92"/>
+      <c r="Q31" s="90"/>
       <c r="R31" s="35"/>
       <c r="S31" s="36" t="s">
         <v>3</v>
@@ -6064,7 +6044,7 @@
         <f t="shared" si="0"/>
         <v>1.8641559341247644</v>
       </c>
-      <c r="U31" s="94"/>
+      <c r="U31" s="98"/>
       <c r="V31" s="50"/>
       <c r="W31" s="51" t="s">
         <v>3</v>
@@ -6075,7 +6055,7 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="92"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36" t="s">
         <v>2</v>
@@ -6095,7 +6075,7 @@
       <c r="H32" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="94"/>
+      <c r="I32" s="98"/>
       <c r="J32" s="50"/>
       <c r="K32" s="51" t="s">
         <v>2</v>
@@ -6112,7 +6092,7 @@
       <c r="O32" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" s="92"/>
+      <c r="Q32" s="90"/>
       <c r="R32" s="35"/>
       <c r="S32" s="36" t="s">
         <v>2</v>
@@ -6121,7 +6101,7 @@
         <f t="shared" si="0"/>
         <v>8.9366124004156511</v>
       </c>
-      <c r="U32" s="94"/>
+      <c r="U32" s="98"/>
       <c r="V32" s="50"/>
       <c r="W32" s="51" t="s">
         <v>2</v>
@@ -6132,7 +6112,7 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="92"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36" t="s">
         <v>4</v>
@@ -6152,7 +6132,7 @@
       <c r="H33" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="94"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="50"/>
       <c r="K33" s="51" t="s">
         <v>4</v>
@@ -6169,7 +6149,7 @@
       <c r="O33" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" s="92"/>
+      <c r="Q33" s="90"/>
       <c r="R33" s="35"/>
       <c r="S33" s="36" t="s">
         <v>4</v>
@@ -6178,7 +6158,7 @@
         <f t="shared" si="0"/>
         <v>10.177283748464903</v>
       </c>
-      <c r="U33" s="94"/>
+      <c r="U33" s="98"/>
       <c r="V33" s="50"/>
       <c r="W33" s="51" t="s">
         <v>4</v>
@@ -6189,7 +6169,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="92"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36" t="s">
         <v>8</v>
@@ -6209,7 +6189,7 @@
       <c r="H34" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="94"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="50"/>
       <c r="K34" s="51" t="s">
         <v>8</v>
@@ -6226,7 +6206,7 @@
       <c r="O34" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="92"/>
+      <c r="Q34" s="90"/>
       <c r="R34" s="35"/>
       <c r="S34" s="36" t="s">
         <v>8</v>
@@ -6235,7 +6215,7 @@
         <f t="shared" si="0"/>
         <v>5.6806373397991026</v>
       </c>
-      <c r="U34" s="94"/>
+      <c r="U34" s="98"/>
       <c r="V34" s="50"/>
       <c r="W34" s="51" t="s">
         <v>8</v>
@@ -6246,7 +6226,7 @@
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="92"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36" t="s">
         <v>5</v>
@@ -6266,7 +6246,7 @@
       <c r="H35" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="94"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="50"/>
       <c r="K35" s="58" t="s">
         <v>5</v>
@@ -6283,7 +6263,7 @@
       <c r="O35" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="Q35" s="92"/>
+      <c r="Q35" s="90"/>
       <c r="R35" s="35"/>
       <c r="S35" s="36" t="s">
         <v>5</v>
@@ -6292,7 +6272,7 @@
         <f t="shared" si="0"/>
         <v>20.899329281733159</v>
       </c>
-      <c r="U35" s="94"/>
+      <c r="U35" s="98"/>
       <c r="V35" s="50"/>
       <c r="W35" s="58" t="s">
         <v>5</v>
@@ -6303,7 +6283,7 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="92"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="38"/>
       <c r="C36" s="39" t="s">
         <v>6</v>
@@ -6323,7 +6303,7 @@
       <c r="H36" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="94"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="54"/>
       <c r="K36" s="55" t="s">
         <v>6</v>
@@ -6340,7 +6320,7 @@
       <c r="O36" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="92"/>
+      <c r="Q36" s="90"/>
       <c r="R36" s="38"/>
       <c r="S36" s="39" t="s">
         <v>6</v>
@@ -6349,7 +6329,7 @@
         <f t="shared" si="0"/>
         <v>27.571873917561479</v>
       </c>
-      <c r="U36" s="94"/>
+      <c r="U36" s="98"/>
       <c r="V36" s="54"/>
       <c r="W36" s="55" t="s">
         <v>6</v>
@@ -6360,7 +6340,7 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="93"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -6368,103 +6348,103 @@
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="95"/>
+      <c r="I37" s="99"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="M37" s="55"/>
       <c r="N37" s="55"/>
       <c r="O37" s="56"/>
-      <c r="Q37" s="93"/>
+      <c r="Q37" s="91"/>
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
       <c r="T37" s="39"/>
-      <c r="U37" s="95"/>
+      <c r="U37" s="99"/>
       <c r="V37" s="55"/>
       <c r="W37" s="55"/>
       <c r="X37" s="55"/>
     </row>
     <row r="38" spans="1:24" ht="17.25" customHeight="1"/>
     <row r="39" spans="1:24">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
     </row>
     <row r="40" spans="1:24" ht="15">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="96" t="s">
+      <c r="F40" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="98" t="s">
+      <c r="G40" s="105" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="68"/>
-      <c r="I40" s="98" t="s">
+      <c r="I40" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="96" t="s">
+      <c r="J40" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="96" t="s">
+      <c r="K40" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="96" t="s">
+      <c r="L40" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="96" t="s">
+      <c r="M40" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="96" t="s">
+      <c r="N40" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="103" t="s">
+      <c r="O40" s="101" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15">
-      <c r="A41" s="101"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="99"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="104"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="102"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="26"/>
@@ -6492,7 +6472,7 @@
       <c r="X42" s="42"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -6516,7 +6496,7 @@
       <c r="H43" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="90" t="s">
+      <c r="I43" s="96" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="21" t="s">
@@ -6529,7 +6509,7 @@
         <v>6.7778</v>
       </c>
       <c r="M43" s="22">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N43" s="66">
         <v>-9.2942999999999998E-2</v>
@@ -6537,7 +6517,7 @@
       <c r="O43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q43" s="88" t="s">
+      <c r="Q43" s="94" t="s">
         <v>17</v>
       </c>
       <c r="R43" s="10" t="s">
@@ -6550,7 +6530,7 @@
         <f>(ABS(E43-F43)/E43)*100</f>
         <v>1.4677867649355156</v>
       </c>
-      <c r="U43" s="90" t="s">
+      <c r="U43" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V43" s="21" t="s">
@@ -6561,11 +6541,11 @@
       </c>
       <c r="X43" s="87">
         <f>(ABS(M43-N43)/M43)*100</f>
-        <v>100.89333910034601</v>
+        <v>993.3391003460207</v>
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="88"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="12"/>
       <c r="C44" s="6" t="s">
         <v>3</v>
@@ -6585,7 +6565,7 @@
       <c r="H44" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="90"/>
+      <c r="I44" s="96"/>
       <c r="J44" s="23"/>
       <c r="K44" s="16" t="s">
         <v>3</v>
@@ -6594,7 +6574,7 @@
         <v>7.8890000000000002</v>
       </c>
       <c r="M44" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N44" s="25">
         <v>7.5215000000000004E-2</v>
@@ -6602,7 +6582,7 @@
       <c r="O44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="88"/>
+      <c r="Q44" s="94"/>
       <c r="R44" s="12"/>
       <c r="S44" s="6" t="s">
         <v>3</v>
@@ -6611,18 +6591,18 @@
         <f t="shared" ref="T44:T49" si="2">(ABS(E44-F44)/E44)*100</f>
         <v>1.592704787483205</v>
       </c>
-      <c r="U44" s="90"/>
+      <c r="U44" s="96"/>
       <c r="V44" s="23"/>
       <c r="W44" s="16" t="s">
         <v>3</v>
       </c>
       <c r="X44" s="87">
         <f t="shared" ref="X44:X49" si="3">(ABS(M44-N44)/M44)*100</f>
-        <v>99.277056901191855</v>
+        <v>622.94309880815081</v>
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="88"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -6642,7 +6622,7 @@
       <c r="H45" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="90"/>
+      <c r="I45" s="96"/>
       <c r="J45" s="23"/>
       <c r="K45" s="16" t="s">
         <v>2</v>
@@ -6651,7 +6631,7 @@
         <v>8.7222000000000008</v>
       </c>
       <c r="M45" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N45" s="25">
         <v>-0.37559700000000001</v>
@@ -6659,7 +6639,7 @@
       <c r="O45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="88"/>
+      <c r="Q45" s="94"/>
       <c r="R45" s="12"/>
       <c r="S45" s="6" t="s">
         <v>2</v>
@@ -6668,18 +6648,18 @@
         <f t="shared" si="2"/>
         <v>7.2483682583304692</v>
       </c>
-      <c r="U45" s="90"/>
+      <c r="U45" s="96"/>
       <c r="V45" s="23"/>
       <c r="W45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="X45" s="87">
         <f t="shared" si="3"/>
-        <v>103.61012110726644</v>
+        <v>3710.1211072664364</v>
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="88"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="12"/>
       <c r="C46" s="6" t="s">
         <v>4</v>
@@ -6699,7 +6679,7 @@
       <c r="H46" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="90"/>
+      <c r="I46" s="96"/>
       <c r="J46" s="23"/>
       <c r="K46" s="16" t="s">
         <v>4</v>
@@ -6708,7 +6688,7 @@
         <v>11.944000000000001</v>
       </c>
       <c r="M46" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N46" s="25">
         <v>0.14213100000000001</v>
@@ -6716,7 +6696,7 @@
       <c r="O46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="88"/>
+      <c r="Q46" s="94"/>
       <c r="R46" s="12"/>
       <c r="S46" s="6" t="s">
         <v>4</v>
@@ -6725,18 +6705,18 @@
         <f t="shared" si="2"/>
         <v>7.6075075731551101</v>
       </c>
-      <c r="U46" s="90"/>
+      <c r="U46" s="96"/>
       <c r="V46" s="23"/>
       <c r="W46" s="16" t="s">
         <v>4</v>
       </c>
       <c r="X46" s="87">
         <f t="shared" si="3"/>
-        <v>98.633881199538649</v>
+        <v>1266.1188004613612</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="88"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
         <v>8</v>
@@ -6756,7 +6736,7 @@
       <c r="H47" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="90"/>
+      <c r="I47" s="96"/>
       <c r="J47" s="23"/>
       <c r="K47" s="16" t="s">
         <v>8</v>
@@ -6765,7 +6745,7 @@
         <v>14.111000000000001</v>
       </c>
       <c r="M47" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N47" s="25">
         <v>-0.18697900000000001</v>
@@ -6773,7 +6753,7 @@
       <c r="O47" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="88"/>
+      <c r="Q47" s="94"/>
       <c r="R47" s="12"/>
       <c r="S47" s="6" t="s">
         <v>8</v>
@@ -6782,18 +6762,18 @@
         <f t="shared" si="2"/>
         <v>3.8630898472877289</v>
       </c>
-      <c r="U47" s="90"/>
+      <c r="U47" s="96"/>
       <c r="V47" s="23"/>
       <c r="W47" s="16" t="s">
         <v>8</v>
       </c>
       <c r="X47" s="87">
         <f t="shared" si="3"/>
-        <v>101.79718377547098</v>
+        <v>1897.1837754709729</v>
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="88"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="12"/>
       <c r="C48" s="6" t="s">
         <v>5</v>
@@ -6813,7 +6793,7 @@
       <c r="H48" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="90"/>
+      <c r="I48" s="96"/>
       <c r="J48" s="23"/>
       <c r="K48" s="57" t="s">
         <v>5</v>
@@ -6822,7 +6802,7 @@
         <v>47.25</v>
       </c>
       <c r="M48" s="80">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N48" s="81">
         <v>3.9748000000000001</v>
@@ -6830,7 +6810,7 @@
       <c r="O48" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="88"/>
+      <c r="Q48" s="94"/>
       <c r="R48" s="12"/>
       <c r="S48" s="6" t="s">
         <v>5</v>
@@ -6839,18 +6819,18 @@
         <f t="shared" si="2"/>
         <v>17.010711720433456</v>
       </c>
-      <c r="U48" s="90"/>
+      <c r="U48" s="96"/>
       <c r="V48" s="23"/>
       <c r="W48" s="57" t="s">
         <v>5</v>
       </c>
       <c r="X48" s="87">
         <f t="shared" si="3"/>
-        <v>61.795463283352561</v>
+        <v>38104.536716647446</v>
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="88"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
         <v>6</v>
@@ -6870,7 +6850,7 @@
       <c r="H49" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="90"/>
+      <c r="I49" s="96"/>
       <c r="J49" s="24"/>
       <c r="K49" s="19" t="s">
         <v>6</v>
@@ -6879,7 +6859,7 @@
         <v>34</v>
       </c>
       <c r="M49" s="62">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N49" s="63">
         <v>-0.668937</v>
@@ -6887,7 +6867,7 @@
       <c r="O49" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="88"/>
+      <c r="Q49" s="94"/>
       <c r="R49" s="14"/>
       <c r="S49" s="8" t="s">
         <v>6</v>
@@ -6896,18 +6876,18 @@
         <f t="shared" si="2"/>
         <v>16.592236344898669</v>
       </c>
-      <c r="U49" s="90"/>
+      <c r="U49" s="96"/>
       <c r="V49" s="24"/>
       <c r="W49" s="19" t="s">
         <v>6</v>
       </c>
       <c r="X49" s="87">
         <f t="shared" si="3"/>
-        <v>106.42961361014993</v>
+        <v>6529.6136101499415</v>
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="88"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -6915,24 +6895,24 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
       <c r="H50" s="70"/>
-      <c r="I50" s="90"/>
+      <c r="I50" s="96"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="18"/>
-      <c r="Q50" s="88"/>
+      <c r="Q50" s="94"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="90"/>
+      <c r="U50" s="96"/>
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="87"/>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="88"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="10" t="s">
         <v>7</v>
       </c>
@@ -6952,7 +6932,7 @@
       <c r="H51" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="90"/>
+      <c r="I51" s="96"/>
       <c r="J51" s="21" t="s">
         <v>7</v>
       </c>
@@ -6963,13 +6943,13 @@
         <v>7.0556000000000001</v>
       </c>
       <c r="M51" s="22">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N51" s="66">
         <v>-9.5515000000000003E-2</v>
       </c>
       <c r="O51" s="18"/>
-      <c r="Q51" s="88"/>
+      <c r="Q51" s="94"/>
       <c r="R51" s="10" t="s">
         <v>7</v>
       </c>
@@ -6980,7 +6960,7 @@
         <f t="shared" ref="T51:T57" si="4">(ABS(E51-F51)/E51)*100</f>
         <v>1.4865244683176693</v>
       </c>
-      <c r="U51" s="90"/>
+      <c r="U51" s="96"/>
       <c r="V51" s="21" t="s">
         <v>7</v>
       </c>
@@ -6989,11 +6969,11 @@
       </c>
       <c r="X51" s="87">
         <f t="shared" ref="X51:X57" si="5">(ABS(M51-N51)/M51)*100</f>
-        <v>100.91806036139947</v>
+        <v>1018.0603613994616</v>
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="88"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="12"/>
       <c r="C52" s="6" t="s">
         <v>3</v>
@@ -7011,7 +6991,7 @@
       <c r="H52" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="90"/>
+      <c r="I52" s="96"/>
       <c r="J52" s="23"/>
       <c r="K52" s="16" t="s">
         <v>3</v>
@@ -7020,13 +7000,13 @@
         <v>7.8339999999999996</v>
       </c>
       <c r="M52" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N52" s="25">
         <v>7.8512999999999999E-2</v>
       </c>
       <c r="O52" s="18"/>
-      <c r="Q52" s="88"/>
+      <c r="Q52" s="94"/>
       <c r="R52" s="12"/>
       <c r="S52" s="6" t="s">
         <v>3</v>
@@ -7035,18 +7015,18 @@
         <f t="shared" si="4"/>
         <v>1.5083851222635078</v>
       </c>
-      <c r="U52" s="90"/>
+      <c r="U52" s="96"/>
       <c r="V52" s="23"/>
       <c r="W52" s="16" t="s">
         <v>3</v>
       </c>
       <c r="X52" s="87">
         <f t="shared" si="5"/>
-        <v>99.245357554786622</v>
+        <v>654.64244521337957</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="88"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="12"/>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -7064,7 +7044,7 @@
       <c r="H53" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="90"/>
+      <c r="I53" s="96"/>
       <c r="J53" s="23"/>
       <c r="K53" s="16" t="s">
         <v>2</v>
@@ -7073,13 +7053,13 @@
         <v>8.5570000000000004</v>
       </c>
       <c r="M53" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N53" s="25">
         <v>-0.39083200000000001</v>
       </c>
       <c r="O53" s="18"/>
-      <c r="Q53" s="88"/>
+      <c r="Q53" s="94"/>
       <c r="R53" s="12"/>
       <c r="S53" s="6" t="s">
         <v>2</v>
@@ -7088,18 +7068,18 @@
         <f t="shared" si="4"/>
         <v>7.229630554948316</v>
       </c>
-      <c r="U53" s="90"/>
+      <c r="U53" s="96"/>
       <c r="V53" s="23"/>
       <c r="W53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="X53" s="87">
         <f t="shared" si="5"/>
-        <v>103.75655517108804</v>
+        <v>3856.5551710880436</v>
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="88"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="12"/>
       <c r="C54" s="6" t="s">
         <v>4</v>
@@ -7117,7 +7097,7 @@
       <c r="H54" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="90"/>
+      <c r="I54" s="96"/>
       <c r="J54" s="23"/>
       <c r="K54" s="16" t="s">
         <v>4</v>
@@ -7126,13 +7106,13 @@
         <v>12.055999999999999</v>
       </c>
       <c r="M54" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N54" s="25">
         <v>0.15581400000000001</v>
       </c>
       <c r="O54" s="18"/>
-      <c r="Q54" s="88"/>
+      <c r="Q54" s="94"/>
       <c r="R54" s="12"/>
       <c r="S54" s="6" t="s">
         <v>4</v>
@@ -7141,18 +7121,18 @@
         <f t="shared" si="4"/>
         <v>7.7636551013397366</v>
       </c>
-      <c r="U54" s="90"/>
+      <c r="U54" s="96"/>
       <c r="V54" s="23"/>
       <c r="W54" s="16" t="s">
         <v>4</v>
       </c>
       <c r="X54" s="87">
         <f t="shared" si="5"/>
-        <v>98.502364475201858</v>
+        <v>1397.6355247981546</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="88"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="12"/>
       <c r="C55" s="6" t="s">
         <v>8</v>
@@ -7170,7 +7150,7 @@
       <c r="H55" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="90"/>
+      <c r="I55" s="96"/>
       <c r="J55" s="23"/>
       <c r="K55" s="16" t="s">
         <v>8</v>
@@ -7179,13 +7159,13 @@
         <v>13.788</v>
       </c>
       <c r="M55" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N55" s="25">
         <v>-0.23756099999999999</v>
       </c>
       <c r="O55" s="18"/>
-      <c r="Q55" s="88"/>
+      <c r="Q55" s="94"/>
       <c r="R55" s="12"/>
       <c r="S55" s="6" t="s">
         <v>8</v>
@@ -7194,18 +7174,18 @@
         <f t="shared" si="4"/>
         <v>5.0060897535992108</v>
       </c>
-      <c r="U55" s="90"/>
+      <c r="U55" s="96"/>
       <c r="V55" s="23"/>
       <c r="W55" s="16" t="s">
         <v>8</v>
       </c>
       <c r="X55" s="87">
         <f t="shared" si="5"/>
-        <v>102.28336216839678</v>
+        <v>2383.3621683967704</v>
       </c>
     </row>
     <row r="56" spans="1:24">
-      <c r="A56" s="88"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
         <v>5</v>
@@ -7223,7 +7203,7 @@
       <c r="H56" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="90"/>
+      <c r="I56" s="96"/>
       <c r="J56" s="23"/>
       <c r="K56" s="16" t="s">
         <v>5</v>
@@ -7232,13 +7212,13 @@
         <v>76.546999999999997</v>
       </c>
       <c r="M56" s="80">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N56" s="81">
         <v>3.9866999999999999</v>
       </c>
       <c r="O56" s="18"/>
-      <c r="Q56" s="88"/>
+      <c r="Q56" s="94"/>
       <c r="R56" s="12"/>
       <c r="S56" s="6" t="s">
         <v>5</v>
@@ -7247,23 +7227,23 @@
         <f t="shared" si="4"/>
         <v>17.525998563442737</v>
       </c>
-      <c r="U56" s="90"/>
+      <c r="U56" s="96"/>
       <c r="V56" s="23"/>
       <c r="W56" s="57" t="s">
         <v>5</v>
       </c>
       <c r="X56" s="87">
         <f t="shared" si="5"/>
-        <v>61.681084198385236</v>
+        <v>38218.915801614763</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="88"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="14"/>
       <c r="C57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="105">
+      <c r="D57" s="88">
         <v>11.5</v>
       </c>
       <c r="E57" s="8">
@@ -7276,7 +7256,7 @@
       <c r="H57" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="90"/>
+      <c r="I57" s="96"/>
       <c r="J57" s="24"/>
       <c r="K57" s="19" t="s">
         <v>6</v>
@@ -7285,13 +7265,13 @@
         <v>46.59</v>
       </c>
       <c r="M57" s="62">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N57" s="63">
         <v>-0.66685499999999998</v>
       </c>
       <c r="O57" s="18"/>
-      <c r="Q57" s="88"/>
+      <c r="Q57" s="94"/>
       <c r="R57" s="14"/>
       <c r="S57" s="8" t="s">
         <v>6</v>
@@ -7300,18 +7280,18 @@
         <f t="shared" si="4"/>
         <v>17.020080572124556</v>
       </c>
-      <c r="U57" s="90"/>
+      <c r="U57" s="96"/>
       <c r="V57" s="24"/>
       <c r="W57" s="19" t="s">
         <v>6</v>
       </c>
       <c r="X57" s="87">
         <f t="shared" si="5"/>
-        <v>106.40960207612457</v>
+        <v>6509.6020761245672</v>
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="89"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -7319,18 +7299,18 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="70"/>
-      <c r="I58" s="91"/>
+      <c r="I58" s="97"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
-      <c r="Q58" s="89"/>
+      <c r="Q58" s="95"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="91"/>
+      <c r="U58" s="97"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
       <c r="X58" s="87"/>
@@ -7361,7 +7341,7 @@
       <c r="X59" s="87"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="32" t="s">
@@ -7385,7 +7365,7 @@
       <c r="H60" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="94" t="s">
+      <c r="I60" s="98" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="47" t="s">
@@ -7406,7 +7386,7 @@
       <c r="O60" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q60" s="92" t="s">
+      <c r="Q60" s="90" t="s">
         <v>18</v>
       </c>
       <c r="R60" s="32" t="s">
@@ -7419,7 +7399,7 @@
         <f t="shared" ref="T60:T66" si="6">(ABS(E60-F60)/E60)*100</f>
         <v>1.7412935323383192</v>
       </c>
-      <c r="U60" s="94" t="s">
+      <c r="U60" s="98" t="s">
         <v>20</v>
       </c>
       <c r="V60" s="47" t="s">
@@ -7434,7 +7414,7 @@
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="92"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="35"/>
       <c r="C61" s="36" t="s">
         <v>3</v>
@@ -7454,7 +7434,7 @@
       <c r="H61" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="94"/>
+      <c r="I61" s="98"/>
       <c r="J61" s="50"/>
       <c r="K61" s="51" t="s">
         <v>3</v>
@@ -7471,7 +7451,7 @@
       <c r="O61" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q61" s="92"/>
+      <c r="Q61" s="90"/>
       <c r="R61" s="35"/>
       <c r="S61" s="36" t="s">
         <v>3</v>
@@ -7480,7 +7460,7 @@
         <f t="shared" si="6"/>
         <v>2.0057938157314648</v>
       </c>
-      <c r="U61" s="94"/>
+      <c r="U61" s="98"/>
       <c r="V61" s="50"/>
       <c r="W61" s="51" t="s">
         <v>3</v>
@@ -7491,7 +7471,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1">
-      <c r="A62" s="92"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="35"/>
       <c r="C62" s="36" t="s">
         <v>2</v>
@@ -7511,7 +7491,7 @@
       <c r="H62" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="94"/>
+      <c r="I62" s="98"/>
       <c r="J62" s="50"/>
       <c r="K62" s="51" t="s">
         <v>2</v>
@@ -7528,7 +7508,7 @@
       <c r="O62" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q62" s="92"/>
+      <c r="Q62" s="90"/>
       <c r="R62" s="35"/>
       <c r="S62" s="36" t="s">
         <v>2</v>
@@ -7537,7 +7517,7 @@
         <f t="shared" si="6"/>
         <v>8.9552238805970212</v>
       </c>
-      <c r="U62" s="94"/>
+      <c r="U62" s="98"/>
       <c r="V62" s="50"/>
       <c r="W62" s="51" t="s">
         <v>2</v>
@@ -7548,7 +7528,7 @@
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="92"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="35"/>
       <c r="C63" s="36" t="s">
         <v>4</v>
@@ -7568,7 +7548,7 @@
       <c r="H63" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="94"/>
+      <c r="I63" s="98"/>
       <c r="J63" s="50"/>
       <c r="K63" s="51" t="s">
         <v>4</v>
@@ -7585,7 +7565,7 @@
       <c r="O63" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q63" s="92"/>
+      <c r="Q63" s="90"/>
       <c r="R63" s="35"/>
       <c r="S63" s="36" t="s">
         <v>4</v>
@@ -7594,7 +7574,7 @@
         <f t="shared" si="6"/>
         <v>9.795956924239551</v>
       </c>
-      <c r="U63" s="94"/>
+      <c r="U63" s="98"/>
       <c r="V63" s="50"/>
       <c r="W63" s="51" t="s">
         <v>4</v>
@@ -7605,7 +7585,7 @@
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="92"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="35"/>
       <c r="C64" s="36" t="s">
         <v>8</v>
@@ -7625,7 +7605,7 @@
       <c r="H64" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="94"/>
+      <c r="I64" s="98"/>
       <c r="J64" s="50"/>
       <c r="K64" s="51" t="s">
         <v>8</v>
@@ -7642,7 +7622,7 @@
       <c r="O64" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q64" s="92"/>
+      <c r="Q64" s="90"/>
       <c r="R64" s="35"/>
       <c r="S64" s="36" t="s">
         <v>8</v>
@@ -7651,7 +7631,7 @@
         <f t="shared" si="6"/>
         <v>4.7924932300522736</v>
       </c>
-      <c r="U64" s="94"/>
+      <c r="U64" s="98"/>
       <c r="V64" s="50"/>
       <c r="W64" s="51" t="s">
         <v>8</v>
@@ -7662,7 +7642,7 @@
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="92"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="35"/>
       <c r="C65" s="36" t="s">
         <v>5</v>
@@ -7682,7 +7662,7 @@
       <c r="H65" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="94"/>
+      <c r="I65" s="98"/>
       <c r="J65" s="50"/>
       <c r="K65" s="58" t="s">
         <v>5</v>
@@ -7699,7 +7679,7 @@
       <c r="O65" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="92"/>
+      <c r="Q65" s="90"/>
       <c r="R65" s="35"/>
       <c r="S65" s="36" t="s">
         <v>5</v>
@@ -7708,7 +7688,7 @@
         <f t="shared" si="6"/>
         <v>21.541029032054912</v>
       </c>
-      <c r="U65" s="94"/>
+      <c r="U65" s="98"/>
       <c r="V65" s="50"/>
       <c r="W65" s="58" t="s">
         <v>5</v>
@@ -7719,7 +7699,7 @@
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="92"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="38"/>
       <c r="C66" s="39" t="s">
         <v>6</v>
@@ -7739,7 +7719,7 @@
       <c r="H66" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="94"/>
+      <c r="I66" s="98"/>
       <c r="J66" s="54"/>
       <c r="K66" s="55" t="s">
         <v>6</v>
@@ -7756,7 +7736,7 @@
       <c r="O66" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q66" s="92"/>
+      <c r="Q66" s="90"/>
       <c r="R66" s="38"/>
       <c r="S66" s="39" t="s">
         <v>6</v>
@@ -7765,7 +7745,7 @@
         <f t="shared" si="6"/>
         <v>25.590402418288306</v>
       </c>
-      <c r="U66" s="94"/>
+      <c r="U66" s="98"/>
       <c r="V66" s="54"/>
       <c r="W66" s="55" t="s">
         <v>6</v>
@@ -7776,7 +7756,7 @@
       </c>
     </row>
     <row r="67" spans="1:24">
-      <c r="A67" s="92"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
@@ -7784,24 +7764,24 @@
       <c r="F67" s="36"/>
       <c r="G67" s="34"/>
       <c r="H67" s="70"/>
-      <c r="I67" s="94"/>
+      <c r="I67" s="98"/>
       <c r="J67" s="51"/>
       <c r="K67" s="51"/>
       <c r="L67" s="51"/>
       <c r="M67" s="51"/>
       <c r="N67" s="51"/>
       <c r="O67" s="49"/>
-      <c r="Q67" s="92"/>
+      <c r="Q67" s="90"/>
       <c r="R67" s="36"/>
       <c r="S67" s="36"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="94"/>
+      <c r="U67" s="98"/>
       <c r="V67" s="51"/>
       <c r="W67" s="51"/>
       <c r="X67" s="87"/>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="92"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="32" t="s">
         <v>7</v>
       </c>
@@ -7821,7 +7801,7 @@
       <c r="H68" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="94"/>
+      <c r="I68" s="98"/>
       <c r="J68" s="47" t="s">
         <v>7</v>
       </c>
@@ -7838,7 +7818,7 @@
         <v>-9.8916000000000004E-2</v>
       </c>
       <c r="O68" s="49"/>
-      <c r="Q68" s="92"/>
+      <c r="Q68" s="90"/>
       <c r="R68" s="32" t="s">
         <v>7</v>
       </c>
@@ -7849,7 +7829,7 @@
         <f t="shared" ref="T68:T74" si="8">(ABS(E68-F68)/E68)*100</f>
         <v>1.7790792871087666</v>
       </c>
-      <c r="U68" s="94"/>
+      <c r="U68" s="98"/>
       <c r="V68" s="47" t="s">
         <v>7</v>
       </c>
@@ -7862,7 +7842,7 @@
       </c>
     </row>
     <row r="69" spans="1:24">
-      <c r="A69" s="92"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="35"/>
       <c r="C69" s="36" t="s">
         <v>3</v>
@@ -7880,7 +7860,7 @@
       <c r="H69" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="94"/>
+      <c r="I69" s="98"/>
       <c r="J69" s="50"/>
       <c r="K69" s="51" t="s">
         <v>3</v>
@@ -7895,7 +7875,7 @@
         <v>3.6056999999999999E-2</v>
       </c>
       <c r="O69" s="49"/>
-      <c r="Q69" s="92"/>
+      <c r="Q69" s="90"/>
       <c r="R69" s="35"/>
       <c r="S69" s="36" t="s">
         <v>3</v>
@@ -7904,7 +7884,7 @@
         <f t="shared" si="8"/>
         <v>1.7570375968259846</v>
       </c>
-      <c r="U69" s="94"/>
+      <c r="U69" s="98"/>
       <c r="V69" s="50"/>
       <c r="W69" s="51" t="s">
         <v>3</v>
@@ -7915,7 +7895,7 @@
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="92"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="35"/>
       <c r="C70" s="36" t="s">
         <v>2</v>
@@ -7933,7 +7913,7 @@
       <c r="H70" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="94"/>
+      <c r="I70" s="98"/>
       <c r="J70" s="50"/>
       <c r="K70" s="51" t="s">
         <v>2</v>
@@ -7948,7 +7928,7 @@
         <v>-0.40808</v>
       </c>
       <c r="O70" s="49"/>
-      <c r="Q70" s="92"/>
+      <c r="Q70" s="90"/>
       <c r="R70" s="35"/>
       <c r="S70" s="36" t="s">
         <v>2</v>
@@ -7957,7 +7937,7 @@
         <f t="shared" si="8"/>
         <v>8.9142893129290286</v>
       </c>
-      <c r="U70" s="94"/>
+      <c r="U70" s="98"/>
       <c r="V70" s="50"/>
       <c r="W70" s="51" t="s">
         <v>2</v>
@@ -7968,7 +7948,7 @@
       </c>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="92"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="35"/>
       <c r="C71" s="36" t="s">
         <v>4</v>
@@ -7986,7 +7966,7 @@
       <c r="H71" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="94"/>
+      <c r="I71" s="98"/>
       <c r="J71" s="50"/>
       <c r="K71" s="51" t="s">
         <v>4</v>
@@ -8001,7 +7981,7 @@
         <v>5.4552999999999997E-2</v>
       </c>
       <c r="O71" s="49"/>
-      <c r="Q71" s="92"/>
+      <c r="Q71" s="90"/>
       <c r="R71" s="35"/>
       <c r="S71" s="36" t="s">
         <v>4</v>
@@ -8010,7 +7990,7 @@
         <f t="shared" si="8"/>
         <v>10.173814471944068</v>
       </c>
-      <c r="U71" s="94"/>
+      <c r="U71" s="98"/>
       <c r="V71" s="50"/>
       <c r="W71" s="51" t="s">
         <v>4</v>
@@ -8021,7 +8001,7 @@
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="92"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="35"/>
       <c r="C72" s="36" t="s">
         <v>8</v>
@@ -8039,7 +8019,7 @@
       <c r="H72" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="94"/>
+      <c r="I72" s="98"/>
       <c r="J72" s="50"/>
       <c r="K72" s="51" t="s">
         <v>8</v>
@@ -8054,7 +8034,7 @@
         <v>-0.22847400000000001</v>
       </c>
       <c r="O72" s="49"/>
-      <c r="Q72" s="92"/>
+      <c r="Q72" s="90"/>
       <c r="R72" s="35"/>
       <c r="S72" s="36" t="s">
         <v>8</v>
@@ -8063,7 +8043,7 @@
         <f t="shared" si="8"/>
         <v>6.0583160148624007</v>
       </c>
-      <c r="U72" s="94"/>
+      <c r="U72" s="98"/>
       <c r="V72" s="50"/>
       <c r="W72" s="51" t="s">
         <v>8</v>
@@ -8074,7 +8054,7 @@
       </c>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="92"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="35"/>
       <c r="C73" s="36" t="s">
         <v>5</v>
@@ -8092,7 +8072,7 @@
       <c r="H73" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="94"/>
+      <c r="I73" s="98"/>
       <c r="J73" s="50"/>
       <c r="K73" s="51" t="s">
         <v>5</v>
@@ -8107,7 +8087,7 @@
         <v>3.9824000000000002</v>
       </c>
       <c r="O73" s="49"/>
-      <c r="Q73" s="92"/>
+      <c r="Q73" s="90"/>
       <c r="R73" s="35"/>
       <c r="S73" s="36" t="s">
         <v>5</v>
@@ -8116,7 +8096,7 @@
         <f t="shared" si="8"/>
         <v>21.88739845078404</v>
       </c>
-      <c r="U73" s="94"/>
+      <c r="U73" s="98"/>
       <c r="V73" s="50"/>
       <c r="W73" s="58" t="s">
         <v>5</v>
@@ -8127,7 +8107,7 @@
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="92"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="38"/>
       <c r="C74" s="39" t="s">
         <v>6</v>
@@ -8145,7 +8125,7 @@
       <c r="H74" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="94"/>
+      <c r="I74" s="98"/>
       <c r="J74" s="54"/>
       <c r="K74" s="55" t="s">
         <v>6</v>
@@ -8160,7 +8140,7 @@
         <v>-0.667605</v>
       </c>
       <c r="O74" s="49"/>
-      <c r="Q74" s="92"/>
+      <c r="Q74" s="90"/>
       <c r="R74" s="38"/>
       <c r="S74" s="39" t="s">
         <v>6</v>
@@ -8169,7 +8149,7 @@
         <f t="shared" si="8"/>
         <v>27.492285408401031</v>
       </c>
-      <c r="U74" s="94"/>
+      <c r="U74" s="98"/>
       <c r="V74" s="54"/>
       <c r="W74" s="55" t="s">
         <v>6</v>
@@ -8180,7 +8160,7 @@
       </c>
     </row>
     <row r="75" spans="1:24">
-      <c r="A75" s="93"/>
+      <c r="A75" s="91"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
@@ -8188,102 +8168,102 @@
       <c r="F75" s="39"/>
       <c r="G75" s="40"/>
       <c r="H75" s="71"/>
-      <c r="I75" s="95"/>
+      <c r="I75" s="99"/>
       <c r="J75" s="55"/>
       <c r="K75" s="55"/>
       <c r="L75" s="55"/>
       <c r="M75" s="55"/>
       <c r="N75" s="55"/>
       <c r="O75" s="56"/>
-      <c r="Q75" s="93"/>
+      <c r="Q75" s="91"/>
       <c r="R75" s="39"/>
       <c r="S75" s="39"/>
       <c r="T75" s="39"/>
-      <c r="U75" s="95"/>
+      <c r="U75" s="99"/>
       <c r="V75" s="55"/>
       <c r="W75" s="55"/>
       <c r="X75" s="55"/>
     </row>
     <row r="77" spans="1:24">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="102"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="102"/>
-      <c r="J77" s="102"/>
-      <c r="K77" s="102"/>
-      <c r="L77" s="102"/>
-      <c r="M77" s="102"/>
-      <c r="N77" s="102"/>
-      <c r="O77" s="102"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100"/>
+      <c r="K77" s="100"/>
+      <c r="L77" s="100"/>
+      <c r="M77" s="100"/>
+      <c r="N77" s="100"/>
+      <c r="O77" s="100"/>
     </row>
     <row r="78" spans="1:24" ht="15">
-      <c r="A78" s="100" t="s">
+      <c r="A78" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="96" t="s">
+      <c r="C78" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="96" t="s">
+      <c r="E78" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="96" t="s">
+      <c r="F78" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="98" t="s">
+      <c r="G78" s="105" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="68"/>
-      <c r="I78" s="98" t="s">
+      <c r="I78" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J78" s="96" t="s">
+      <c r="J78" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="96" t="s">
+      <c r="K78" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="L78" s="96" t="s">
+      <c r="L78" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M78" s="96" t="s">
+      <c r="M78" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="N78" s="96" t="s">
+      <c r="N78" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O78" s="103" t="s">
+      <c r="O78" s="101" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15">
-      <c r="A79" s="101"/>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="99"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="106"/>
       <c r="H79" s="69"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="97"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="97"/>
-      <c r="O79" s="104"/>
+      <c r="I79" s="106"/>
+      <c r="J79" s="93"/>
+      <c r="K79" s="93"/>
+      <c r="L79" s="93"/>
+      <c r="M79" s="93"/>
+      <c r="N79" s="93"/>
+      <c r="O79" s="102"/>
     </row>
     <row r="80" spans="1:24">
       <c r="A80" s="26"/>
@@ -8311,7 +8291,7 @@
       <c r="X80" s="42"/>
     </row>
     <row r="81" spans="1:24">
-      <c r="A81" s="88" t="s">
+      <c r="A81" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -8335,7 +8315,7 @@
       <c r="H81" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="90" t="s">
+      <c r="I81" s="96" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="21" t="s">
@@ -8356,7 +8336,7 @@
       <c r="O81" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q81" s="88" t="s">
+      <c r="Q81" s="94" t="s">
         <v>17</v>
       </c>
       <c r="R81" s="10" t="s">
@@ -8369,7 +8349,7 @@
         <f>(ABS(E81-F81)/E81)*100</f>
         <v>1.5534162655497792</v>
       </c>
-      <c r="U81" s="90" t="s">
+      <c r="U81" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V81" s="21" t="s">
@@ -8384,7 +8364,7 @@
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="88"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="12"/>
       <c r="C82" s="6" t="s">
         <v>3</v>
@@ -8404,7 +8384,7 @@
       <c r="H82" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="90"/>
+      <c r="I82" s="96"/>
       <c r="J82" s="23"/>
       <c r="K82" s="16" t="s">
         <v>3</v>
@@ -8421,7 +8401,7 @@
       <c r="O82" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q82" s="88"/>
+      <c r="Q82" s="94"/>
       <c r="R82" s="12"/>
       <c r="S82" s="6" t="s">
         <v>3</v>
@@ -8430,7 +8410,7 @@
         <f t="shared" ref="T82:T87" si="10">(ABS(E82-F82)/E82)*100</f>
         <v>1.5909232981184094</v>
       </c>
-      <c r="U82" s="90"/>
+      <c r="U82" s="96"/>
       <c r="V82" s="23"/>
       <c r="W82" s="16" t="s">
         <v>3</v>
@@ -8441,7 +8421,7 @@
       </c>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="88"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="12"/>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -8461,7 +8441,7 @@
       <c r="H83" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I83" s="90"/>
+      <c r="I83" s="96"/>
       <c r="J83" s="23"/>
       <c r="K83" s="16" t="s">
         <v>2</v>
@@ -8478,7 +8458,7 @@
       <c r="O83" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="88"/>
+      <c r="Q83" s="94"/>
       <c r="R83" s="12"/>
       <c r="S83" s="6" t="s">
         <v>2</v>
@@ -8487,7 +8467,7 @@
         <f t="shared" si="10"/>
         <v>7.4138901043945635</v>
       </c>
-      <c r="U83" s="90"/>
+      <c r="U83" s="96"/>
       <c r="V83" s="23"/>
       <c r="W83" s="16" t="s">
         <v>2</v>
@@ -8498,7 +8478,7 @@
       </c>
     </row>
     <row r="84" spans="1:24">
-      <c r="A84" s="88"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="12"/>
       <c r="C84" s="6" t="s">
         <v>4</v>
@@ -8518,7 +8498,7 @@
       <c r="H84" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="90"/>
+      <c r="I84" s="96"/>
       <c r="J84" s="23"/>
       <c r="K84" s="16" t="s">
         <v>4</v>
@@ -8535,7 +8515,7 @@
       <c r="O84" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q84" s="88"/>
+      <c r="Q84" s="94"/>
       <c r="R84" s="12"/>
       <c r="S84" s="6" t="s">
         <v>4</v>
@@ -8544,7 +8524,7 @@
         <f t="shared" si="10"/>
         <v>7.829593048696637</v>
       </c>
-      <c r="U84" s="90"/>
+      <c r="U84" s="96"/>
       <c r="V84" s="23"/>
       <c r="W84" s="16" t="s">
         <v>4</v>
@@ -8555,7 +8535,7 @@
       </c>
     </row>
     <row r="85" spans="1:24">
-      <c r="A85" s="88"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="12"/>
       <c r="C85" s="6" t="s">
         <v>8</v>
@@ -8575,7 +8555,7 @@
       <c r="H85" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I85" s="90"/>
+      <c r="I85" s="96"/>
       <c r="J85" s="23"/>
       <c r="K85" s="16" t="s">
         <v>8</v>
@@ -8592,7 +8572,7 @@
       <c r="O85" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q85" s="88"/>
+      <c r="Q85" s="94"/>
       <c r="R85" s="12"/>
       <c r="S85" s="6" t="s">
         <v>8</v>
@@ -8601,7 +8581,7 @@
         <f t="shared" si="10"/>
         <v>4.182034131399635</v>
       </c>
-      <c r="U85" s="90"/>
+      <c r="U85" s="96"/>
       <c r="V85" s="23"/>
       <c r="W85" s="16" t="s">
         <v>8</v>
@@ -8612,7 +8592,7 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="88"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="12"/>
       <c r="C86" s="6" t="s">
         <v>5</v>
@@ -8632,7 +8612,7 @@
       <c r="H86" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="90"/>
+      <c r="I86" s="96"/>
       <c r="J86" s="84"/>
       <c r="K86" s="57" t="s">
         <v>5</v>
@@ -8649,7 +8629,7 @@
       <c r="O86" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="Q86" s="88"/>
+      <c r="Q86" s="94"/>
       <c r="R86" s="12"/>
       <c r="S86" s="6" t="s">
         <v>5</v>
@@ -8658,7 +8638,7 @@
         <f t="shared" si="10"/>
         <v>18.925423516909426</v>
       </c>
-      <c r="U86" s="90"/>
+      <c r="U86" s="96"/>
       <c r="V86" s="23"/>
       <c r="W86" s="57" t="s">
         <v>5</v>
@@ -8669,7 +8649,7 @@
       </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="A87" s="88"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="14"/>
       <c r="C87" s="8" t="s">
         <v>6</v>
@@ -8689,7 +8669,7 @@
       <c r="H87" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="90"/>
+      <c r="I87" s="96"/>
       <c r="J87" s="24"/>
       <c r="K87" s="19" t="s">
         <v>6</v>
@@ -8706,7 +8686,7 @@
       <c r="O87" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q87" s="88"/>
+      <c r="Q87" s="94"/>
       <c r="R87" s="14"/>
       <c r="S87" s="8" t="s">
         <v>6</v>
@@ -8715,7 +8695,7 @@
         <f t="shared" si="10"/>
         <v>17.390760767643933</v>
       </c>
-      <c r="U87" s="90"/>
+      <c r="U87" s="96"/>
       <c r="V87" s="24"/>
       <c r="W87" s="19" t="s">
         <v>6</v>
@@ -8726,7 +8706,7 @@
       </c>
     </row>
     <row r="88" spans="1:24">
-      <c r="A88" s="88"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -8734,24 +8714,24 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
       <c r="H88" s="70"/>
-      <c r="I88" s="90"/>
+      <c r="I88" s="96"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
       <c r="O88" s="18"/>
-      <c r="Q88" s="88"/>
+      <c r="Q88" s="94"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="90"/>
+      <c r="U88" s="96"/>
       <c r="V88" s="16"/>
       <c r="W88" s="16"/>
       <c r="X88" s="87"/>
     </row>
     <row r="89" spans="1:24">
-      <c r="A89" s="88"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="10" t="s">
         <v>7</v>
       </c>
@@ -8771,7 +8751,7 @@
       <c r="H89" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I89" s="90"/>
+      <c r="I89" s="96"/>
       <c r="J89" s="21" t="s">
         <v>7</v>
       </c>
@@ -8788,7 +8768,7 @@
         <v>-9.1336000000000001E-2</v>
       </c>
       <c r="O89" s="18"/>
-      <c r="Q89" s="88"/>
+      <c r="Q89" s="94"/>
       <c r="R89" s="10" t="s">
         <v>7</v>
       </c>
@@ -8799,7 +8779,7 @@
         <f t="shared" ref="T89:T95" si="12">(ABS(E89-F89)/E89)*100</f>
         <v>1.4752766143651836</v>
       </c>
-      <c r="U89" s="90"/>
+      <c r="U89" s="96"/>
       <c r="V89" s="21" t="s">
         <v>7</v>
       </c>
@@ -8812,7 +8792,7 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="88"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="12"/>
       <c r="C90" s="6" t="s">
         <v>3</v>
@@ -8830,7 +8810,7 @@
       <c r="H90" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="90"/>
+      <c r="I90" s="96"/>
       <c r="J90" s="23"/>
       <c r="K90" s="16" t="s">
         <v>3</v>
@@ -8845,7 +8825,7 @@
         <v>8.0641000000000004E-2</v>
       </c>
       <c r="O90" s="18"/>
-      <c r="Q90" s="88"/>
+      <c r="Q90" s="94"/>
       <c r="R90" s="12"/>
       <c r="S90" s="6" t="s">
         <v>3</v>
@@ -8854,7 +8834,7 @@
         <f t="shared" si="12"/>
         <v>1.5471650934550261</v>
       </c>
-      <c r="U90" s="90"/>
+      <c r="U90" s="96"/>
       <c r="V90" s="23"/>
       <c r="W90" s="16" t="s">
         <v>3</v>
@@ -8865,7 +8845,7 @@
       </c>
     </row>
     <row r="91" spans="1:24">
-      <c r="A91" s="88"/>
+      <c r="A91" s="94"/>
       <c r="B91" s="12"/>
       <c r="C91" s="6" t="s">
         <v>2</v>
@@ -8883,7 +8863,7 @@
       <c r="H91" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I91" s="90"/>
+      <c r="I91" s="96"/>
       <c r="J91" s="23"/>
       <c r="K91" s="16" t="s">
         <v>2</v>
@@ -8898,7 +8878,7 @@
         <v>-0.39086700000000002</v>
       </c>
       <c r="O91" s="18"/>
-      <c r="Q91" s="88"/>
+      <c r="Q91" s="94"/>
       <c r="R91" s="12"/>
       <c r="S91" s="6" t="s">
         <v>2</v>
@@ -8907,7 +8887,7 @@
         <f t="shared" si="12"/>
         <v>7.2951178345939738</v>
       </c>
-      <c r="U91" s="90"/>
+      <c r="U91" s="96"/>
       <c r="V91" s="23"/>
       <c r="W91" s="16" t="s">
         <v>2</v>
@@ -8918,7 +8898,7 @@
       </c>
     </row>
     <row r="92" spans="1:24">
-      <c r="A92" s="88"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="12"/>
       <c r="C92" s="6" t="s">
         <v>4</v>
@@ -8936,7 +8916,7 @@
       <c r="H92" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="90"/>
+      <c r="I92" s="96"/>
       <c r="J92" s="23"/>
       <c r="K92" s="16" t="s">
         <v>4</v>
@@ -8951,7 +8931,7 @@
         <v>0.16190299999999999</v>
       </c>
       <c r="O92" s="18"/>
-      <c r="Q92" s="88"/>
+      <c r="Q92" s="94"/>
       <c r="R92" s="12"/>
       <c r="S92" s="6" t="s">
         <v>4</v>
@@ -8960,7 +8940,7 @@
         <f t="shared" si="12"/>
         <v>8.0077514533975194</v>
       </c>
-      <c r="U92" s="90"/>
+      <c r="U92" s="96"/>
       <c r="V92" s="23"/>
       <c r="W92" s="16" t="s">
         <v>4</v>
@@ -8971,7 +8951,7 @@
       </c>
     </row>
     <row r="93" spans="1:24">
-      <c r="A93" s="88"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="12"/>
       <c r="C93" s="6" t="s">
         <v>8</v>
@@ -8989,7 +8969,7 @@
       <c r="H93" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I93" s="90"/>
+      <c r="I93" s="96"/>
       <c r="J93" s="23"/>
       <c r="K93" s="16" t="s">
         <v>8</v>
@@ -9004,7 +8984,7 @@
         <v>-0.24326800000000001</v>
       </c>
       <c r="O93" s="18"/>
-      <c r="Q93" s="88"/>
+      <c r="Q93" s="94"/>
       <c r="R93" s="12"/>
       <c r="S93" s="6" t="s">
         <v>8</v>
@@ -9013,7 +8993,7 @@
         <f t="shared" si="12"/>
         <v>5.2259798712258485</v>
       </c>
-      <c r="U93" s="90"/>
+      <c r="U93" s="96"/>
       <c r="V93" s="23"/>
       <c r="W93" s="16" t="s">
         <v>8</v>
@@ -9024,7 +9004,7 @@
       </c>
     </row>
     <row r="94" spans="1:24">
-      <c r="A94" s="88"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="12"/>
       <c r="C94" s="6" t="s">
         <v>5</v>
@@ -9042,7 +9022,7 @@
       <c r="H94" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="90"/>
+      <c r="I94" s="96"/>
       <c r="J94" s="23"/>
       <c r="K94" s="16" t="s">
         <v>5</v>
@@ -9057,7 +9037,7 @@
         <v>3.9855999999999998</v>
       </c>
       <c r="O94" s="18"/>
-      <c r="Q94" s="88"/>
+      <c r="Q94" s="94"/>
       <c r="R94" s="12"/>
       <c r="S94" s="6" t="s">
         <v>5</v>
@@ -9066,7 +9046,7 @@
         <f t="shared" si="12"/>
         <v>17.115709195474153</v>
       </c>
-      <c r="U94" s="90"/>
+      <c r="U94" s="96"/>
       <c r="V94" s="23"/>
       <c r="W94" s="57" t="s">
         <v>5</v>
@@ -9077,7 +9057,7 @@
       </c>
     </row>
     <row r="95" spans="1:24">
-      <c r="A95" s="88"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="14"/>
       <c r="C95" s="8" t="s">
         <v>6</v>
@@ -9095,7 +9075,7 @@
       <c r="H95" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="90"/>
+      <c r="I95" s="96"/>
       <c r="J95" s="24"/>
       <c r="K95" s="19" t="s">
         <v>6</v>
@@ -9110,7 +9090,7 @@
         <v>-0.66730500000000004</v>
       </c>
       <c r="O95" s="18"/>
-      <c r="Q95" s="88"/>
+      <c r="Q95" s="94"/>
       <c r="R95" s="14"/>
       <c r="S95" s="8" t="s">
         <v>6</v>
@@ -9119,7 +9099,7 @@
         <f t="shared" si="12"/>
         <v>17.718947302619242</v>
       </c>
-      <c r="U95" s="90"/>
+      <c r="U95" s="96"/>
       <c r="V95" s="24"/>
       <c r="W95" s="19" t="s">
         <v>6</v>
@@ -9130,7 +9110,7 @@
       </c>
     </row>
     <row r="96" spans="1:24">
-      <c r="A96" s="89"/>
+      <c r="A96" s="95"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -9138,18 +9118,18 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="70"/>
-      <c r="I96" s="91"/>
+      <c r="I96" s="97"/>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
       <c r="N96" s="19"/>
       <c r="O96" s="20"/>
-      <c r="Q96" s="89"/>
+      <c r="Q96" s="95"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
       <c r="T96" s="5"/>
-      <c r="U96" s="91"/>
+      <c r="U96" s="97"/>
       <c r="V96" s="19"/>
       <c r="W96" s="19"/>
       <c r="X96" s="87"/>
@@ -9180,7 +9160,7 @@
       <c r="X97" s="87"/>
     </row>
     <row r="98" spans="1:24">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B98" s="32" t="s">
@@ -9204,7 +9184,7 @@
       <c r="H98" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="94" t="s">
+      <c r="I98" s="98" t="s">
         <v>20</v>
       </c>
       <c r="J98" s="47" t="s">
@@ -9225,7 +9205,7 @@
       <c r="O98" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q98" s="92" t="s">
+      <c r="Q98" s="90" t="s">
         <v>18</v>
       </c>
       <c r="R98" s="32" t="s">
@@ -9238,7 +9218,7 @@
         <f t="shared" ref="T98:T104" si="14">(ABS(E98-F98)/E98)*100</f>
         <v>1.8622384673556824</v>
       </c>
-      <c r="U98" s="94" t="s">
+      <c r="U98" s="98" t="s">
         <v>20</v>
       </c>
       <c r="V98" s="47" t="s">
@@ -9253,7 +9233,7 @@
       </c>
     </row>
     <row r="99" spans="1:24">
-      <c r="A99" s="92"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="35"/>
       <c r="C99" s="36" t="s">
         <v>3</v>
@@ -9273,7 +9253,7 @@
       <c r="H99" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="94"/>
+      <c r="I99" s="98"/>
       <c r="J99" s="50"/>
       <c r="K99" s="51" t="s">
         <v>3</v>
@@ -9290,7 +9270,7 @@
       <c r="O99" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q99" s="92"/>
+      <c r="Q99" s="90"/>
       <c r="R99" s="35"/>
       <c r="S99" s="36" t="s">
         <v>3</v>
@@ -9299,7 +9279,7 @@
         <f t="shared" si="14"/>
         <v>1.8433324930678094</v>
       </c>
-      <c r="U99" s="94"/>
+      <c r="U99" s="98"/>
       <c r="V99" s="50"/>
       <c r="W99" s="51" t="s">
         <v>3</v>
@@ -9310,7 +9290,7 @@
       </c>
     </row>
     <row r="100" spans="1:24">
-      <c r="A100" s="92"/>
+      <c r="A100" s="90"/>
       <c r="B100" s="35"/>
       <c r="C100" s="36" t="s">
         <v>2</v>
@@ -9330,7 +9310,7 @@
       <c r="H100" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="94"/>
+      <c r="I100" s="98"/>
       <c r="J100" s="50"/>
       <c r="K100" s="51" t="s">
         <v>2</v>
@@ -9347,7 +9327,7 @@
       <c r="O100" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="92"/>
+      <c r="Q100" s="90"/>
       <c r="R100" s="35"/>
       <c r="S100" s="36" t="s">
         <v>2</v>
@@ -9356,7 +9336,7 @@
         <f t="shared" si="14"/>
         <v>9.1788505167633012</v>
       </c>
-      <c r="U100" s="94"/>
+      <c r="U100" s="98"/>
       <c r="V100" s="50"/>
       <c r="W100" s="51" t="s">
         <v>2</v>
@@ -9367,7 +9347,7 @@
       </c>
     </row>
     <row r="101" spans="1:24">
-      <c r="A101" s="92"/>
+      <c r="A101" s="90"/>
       <c r="B101" s="35"/>
       <c r="C101" s="36" t="s">
         <v>4</v>
@@ -9387,7 +9367,7 @@
       <c r="H101" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I101" s="94"/>
+      <c r="I101" s="98"/>
       <c r="J101" s="50"/>
       <c r="K101" s="51" t="s">
         <v>4</v>
@@ -9404,7 +9384,7 @@
       <c r="O101" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="92"/>
+      <c r="Q101" s="90"/>
       <c r="R101" s="35"/>
       <c r="S101" s="36" t="s">
         <v>4</v>
@@ -9413,7 +9393,7 @@
         <f t="shared" si="14"/>
         <v>10.004411394000501</v>
       </c>
-      <c r="U101" s="94"/>
+      <c r="U101" s="98"/>
       <c r="V101" s="50"/>
       <c r="W101" s="51" t="s">
         <v>4</v>
@@ -9424,7 +9404,7 @@
       </c>
     </row>
     <row r="102" spans="1:24">
-      <c r="A102" s="92"/>
+      <c r="A102" s="90"/>
       <c r="B102" s="35"/>
       <c r="C102" s="36" t="s">
         <v>8</v>
@@ -9444,7 +9424,7 @@
       <c r="H102" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="94"/>
+      <c r="I102" s="98"/>
       <c r="J102" s="50"/>
       <c r="K102" s="51" t="s">
         <v>8</v>
@@ -9461,7 +9441,7 @@
       <c r="O102" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="92"/>
+      <c r="Q102" s="90"/>
       <c r="R102" s="35"/>
       <c r="S102" s="36" t="s">
         <v>8</v>
@@ -9470,7 +9450,7 @@
         <f t="shared" si="14"/>
         <v>5.1392740105873465</v>
       </c>
-      <c r="U102" s="94"/>
+      <c r="U102" s="98"/>
       <c r="V102" s="50"/>
       <c r="W102" s="51" t="s">
         <v>8</v>
@@ -9481,7 +9461,7 @@
       </c>
     </row>
     <row r="103" spans="1:24">
-      <c r="A103" s="92"/>
+      <c r="A103" s="90"/>
       <c r="B103" s="35"/>
       <c r="C103" s="36" t="s">
         <v>5</v>
@@ -9501,7 +9481,7 @@
       <c r="H103" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="94"/>
+      <c r="I103" s="98"/>
       <c r="J103" s="83"/>
       <c r="K103" s="58" t="s">
         <v>5</v>
@@ -9518,7 +9498,7 @@
       <c r="O103" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="Q103" s="92"/>
+      <c r="Q103" s="90"/>
       <c r="R103" s="35"/>
       <c r="S103" s="36" t="s">
         <v>5</v>
@@ -9527,7 +9507,7 @@
         <f t="shared" si="14"/>
         <v>23.329972271237718</v>
       </c>
-      <c r="U103" s="94"/>
+      <c r="U103" s="98"/>
       <c r="V103" s="50"/>
       <c r="W103" s="58" t="s">
         <v>5</v>
@@ -9538,7 +9518,7 @@
       </c>
     </row>
     <row r="104" spans="1:24">
-      <c r="A104" s="92"/>
+      <c r="A104" s="90"/>
       <c r="B104" s="38"/>
       <c r="C104" s="39" t="s">
         <v>6</v>
@@ -9558,7 +9538,7 @@
       <c r="H104" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I104" s="94"/>
+      <c r="I104" s="98"/>
       <c r="J104" s="54"/>
       <c r="K104" s="55" t="s">
         <v>6</v>
@@ -9575,7 +9555,7 @@
       <c r="O104" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q104" s="92"/>
+      <c r="Q104" s="90"/>
       <c r="R104" s="38"/>
       <c r="S104" s="39" t="s">
         <v>6</v>
@@ -9584,7 +9564,7 @@
         <f t="shared" si="14"/>
         <v>27.454625661709109</v>
       </c>
-      <c r="U104" s="94"/>
+      <c r="U104" s="98"/>
       <c r="V104" s="54"/>
       <c r="W104" s="55" t="s">
         <v>6</v>
@@ -9595,7 +9575,7 @@
       </c>
     </row>
     <row r="105" spans="1:24">
-      <c r="A105" s="92"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
@@ -9603,24 +9583,24 @@
       <c r="F105" s="36"/>
       <c r="G105" s="34"/>
       <c r="H105" s="70"/>
-      <c r="I105" s="94"/>
+      <c r="I105" s="98"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
       <c r="L105" s="51"/>
       <c r="M105" s="51"/>
       <c r="N105" s="51"/>
       <c r="O105" s="49"/>
-      <c r="Q105" s="92"/>
+      <c r="Q105" s="90"/>
       <c r="R105" s="36"/>
       <c r="S105" s="36"/>
       <c r="T105" s="5"/>
-      <c r="U105" s="94"/>
+      <c r="U105" s="98"/>
       <c r="V105" s="51"/>
       <c r="W105" s="51"/>
       <c r="X105" s="87"/>
     </row>
     <row r="106" spans="1:24">
-      <c r="A106" s="92"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="32" t="s">
         <v>7</v>
       </c>
@@ -9640,7 +9620,7 @@
       <c r="H106" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I106" s="94"/>
+      <c r="I106" s="98"/>
       <c r="J106" s="47" t="s">
         <v>7</v>
       </c>
@@ -9657,7 +9637,7 @@
         <v>-9.8292000000000004E-2</v>
       </c>
       <c r="O106" s="49"/>
-      <c r="Q106" s="92"/>
+      <c r="Q106" s="90"/>
       <c r="R106" s="32" t="s">
         <v>7</v>
       </c>
@@ -9668,7 +9648,7 @@
         <f t="shared" ref="T106:T112" si="16">(ABS(E106-F106)/E106)*100</f>
         <v>1.8023695487774112</v>
       </c>
-      <c r="U106" s="94"/>
+      <c r="U106" s="98"/>
       <c r="V106" s="47" t="s">
         <v>7</v>
       </c>
@@ -9681,7 +9661,7 @@
       </c>
     </row>
     <row r="107" spans="1:24">
-      <c r="A107" s="92"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="35"/>
       <c r="C107" s="36" t="s">
         <v>3</v>
@@ -9699,7 +9679,7 @@
       <c r="H107" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I107" s="94"/>
+      <c r="I107" s="98"/>
       <c r="J107" s="50"/>
       <c r="K107" s="51" t="s">
         <v>3</v>
@@ -9714,7 +9694,7 @@
         <v>3.9231000000000002E-2</v>
       </c>
       <c r="O107" s="49"/>
-      <c r="Q107" s="92"/>
+      <c r="Q107" s="90"/>
       <c r="R107" s="35"/>
       <c r="S107" s="36" t="s">
         <v>3</v>
@@ -9723,7 +9703,7 @@
         <f t="shared" si="16"/>
         <v>1.8212755230652842</v>
       </c>
-      <c r="U107" s="94"/>
+      <c r="U107" s="98"/>
       <c r="V107" s="50"/>
       <c r="W107" s="51" t="s">
         <v>3</v>
@@ -9734,7 +9714,7 @@
       </c>
     </row>
     <row r="108" spans="1:24">
-      <c r="A108" s="92"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="35"/>
       <c r="C108" s="36" t="s">
         <v>2</v>
@@ -9752,7 +9732,7 @@
       <c r="H108" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I108" s="94"/>
+      <c r="I108" s="98"/>
       <c r="J108" s="50"/>
       <c r="K108" s="51" t="s">
         <v>2</v>
@@ -9767,7 +9747,7 @@
         <v>-0.40397300000000003</v>
       </c>
       <c r="O108" s="49"/>
-      <c r="Q108" s="92"/>
+      <c r="Q108" s="90"/>
       <c r="R108" s="35"/>
       <c r="S108" s="36" t="s">
         <v>2</v>
@@ -9776,7 +9756,7 @@
         <f t="shared" si="16"/>
         <v>9.0843206453239222</v>
       </c>
-      <c r="U108" s="94"/>
+      <c r="U108" s="98"/>
       <c r="V108" s="50"/>
       <c r="W108" s="51" t="s">
         <v>2</v>
@@ -9787,7 +9767,7 @@
       </c>
     </row>
     <row r="109" spans="1:24">
-      <c r="A109" s="92"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="35"/>
       <c r="C109" s="36" t="s">
         <v>4</v>
@@ -9805,7 +9785,7 @@
       <c r="H109" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I109" s="94"/>
+      <c r="I109" s="98"/>
       <c r="J109" s="50"/>
       <c r="K109" s="51" t="s">
         <v>4</v>
@@ -9820,7 +9800,7 @@
         <v>5.6112000000000002E-2</v>
       </c>
       <c r="O109" s="49"/>
-      <c r="Q109" s="92"/>
+      <c r="Q109" s="90"/>
       <c r="R109" s="35"/>
       <c r="S109" s="36" t="s">
         <v>4</v>
@@ -9829,7 +9809,7 @@
         <f t="shared" si="16"/>
         <v>10.357322914040838</v>
       </c>
-      <c r="U109" s="94"/>
+      <c r="U109" s="98"/>
       <c r="V109" s="50"/>
       <c r="W109" s="51" t="s">
         <v>4</v>
@@ -9840,7 +9820,7 @@
       </c>
     </row>
     <row r="110" spans="1:24">
-      <c r="A110" s="92"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="35"/>
       <c r="C110" s="36" t="s">
         <v>8</v>
@@ -9858,7 +9838,7 @@
       <c r="H110" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I110" s="94"/>
+      <c r="I110" s="98"/>
       <c r="J110" s="50"/>
       <c r="K110" s="51" t="s">
         <v>8</v>
@@ -9873,7 +9853,7 @@
         <v>-0.23964199999999999</v>
       </c>
       <c r="O110" s="49"/>
-      <c r="Q110" s="92"/>
+      <c r="Q110" s="90"/>
       <c r="R110" s="35"/>
       <c r="S110" s="36" t="s">
         <v>8</v>
@@ -9882,7 +9862,7 @@
         <f t="shared" si="16"/>
         <v>6.3429543735820468</v>
       </c>
-      <c r="U110" s="94"/>
+      <c r="U110" s="98"/>
       <c r="V110" s="50"/>
       <c r="W110" s="51" t="s">
         <v>8</v>
@@ -9893,7 +9873,7 @@
       </c>
     </row>
     <row r="111" spans="1:24">
-      <c r="A111" s="92"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="35"/>
       <c r="C111" s="36" t="s">
         <v>5</v>
@@ -9911,7 +9891,7 @@
       <c r="H111" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="94"/>
+      <c r="I111" s="98"/>
       <c r="J111" s="50"/>
       <c r="K111" s="51" t="s">
         <v>5</v>
@@ -9926,7 +9906,7 @@
         <v>3.9823</v>
       </c>
       <c r="O111" s="49"/>
-      <c r="Q111" s="92"/>
+      <c r="Q111" s="90"/>
       <c r="R111" s="35"/>
       <c r="S111" s="36" t="s">
         <v>5</v>
@@ -9935,7 +9915,7 @@
         <f t="shared" si="16"/>
         <v>23.018023695487781</v>
       </c>
-      <c r="U111" s="94"/>
+      <c r="U111" s="98"/>
       <c r="V111" s="50"/>
       <c r="W111" s="58" t="s">
         <v>5</v>
@@ -9946,7 +9926,7 @@
       </c>
     </row>
     <row r="112" spans="1:24">
-      <c r="A112" s="92"/>
+      <c r="A112" s="90"/>
       <c r="B112" s="38"/>
       <c r="C112" s="39" t="s">
         <v>6</v>
@@ -9957,14 +9937,14 @@
       <c r="E112" s="61">
         <v>3.1736</v>
       </c>
-      <c r="F112" s="106">
+      <c r="F112" s="89">
         <v>2.2071000000000001</v>
       </c>
       <c r="G112" s="34"/>
       <c r="H112" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="94"/>
+      <c r="I112" s="98"/>
       <c r="J112" s="54"/>
       <c r="K112" s="55" t="s">
         <v>6</v>
@@ -9979,7 +9959,7 @@
         <v>-0.66766700000000001</v>
       </c>
       <c r="O112" s="49"/>
-      <c r="Q112" s="92"/>
+      <c r="Q112" s="90"/>
       <c r="R112" s="38"/>
       <c r="S112" s="39" t="s">
         <v>6</v>
@@ -9988,7 +9968,7 @@
         <f t="shared" si="16"/>
         <v>30.454373582051925</v>
       </c>
-      <c r="U112" s="94"/>
+      <c r="U112" s="98"/>
       <c r="V112" s="54"/>
       <c r="W112" s="55" t="s">
         <v>6</v>
@@ -9999,7 +9979,7 @@
       </c>
     </row>
     <row r="113" spans="1:24">
-      <c r="A113" s="93"/>
+      <c r="A113" s="91"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
@@ -10007,18 +9987,18 @@
       <c r="F113" s="39"/>
       <c r="G113" s="40"/>
       <c r="H113" s="71"/>
-      <c r="I113" s="95"/>
+      <c r="I113" s="99"/>
       <c r="J113" s="55"/>
       <c r="K113" s="55"/>
       <c r="L113" s="55"/>
       <c r="M113" s="55"/>
       <c r="N113" s="55"/>
       <c r="O113" s="56"/>
-      <c r="Q113" s="93"/>
+      <c r="Q113" s="91"/>
       <c r="R113" s="39"/>
       <c r="S113" s="39"/>
       <c r="T113" s="39"/>
-      <c r="U113" s="95"/>
+      <c r="U113" s="99"/>
       <c r="V113" s="55"/>
       <c r="W113" s="55"/>
       <c r="X113" s="55"/>
@@ -10037,6 +10017,10 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A43:A58"/>
     <mergeCell ref="I43:I58"/>
     <mergeCell ref="F40:F41"/>
@@ -10044,11 +10028,21 @@
     <mergeCell ref="U5:U20"/>
     <mergeCell ref="Q22:Q37"/>
     <mergeCell ref="U22:U37"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="I60:I75"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="O40:O41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="N78:N79"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="I98:I113"/>
     <mergeCell ref="J78:J79"/>
@@ -10064,19 +10058,7 @@
     <mergeCell ref="I78:I79"/>
     <mergeCell ref="A81:A96"/>
     <mergeCell ref="I81:I96"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A60:A75"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="Q81:Q96"/>
     <mergeCell ref="U81:U96"/>
@@ -10092,8 +10074,6 @@
     <mergeCell ref="A77:O77"/>
     <mergeCell ref="O78:O79"/>
     <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="A60:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
